--- a/Product Details.xlsx
+++ b/Product Details.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="36">
   <si>
     <t>Product Code</t>
   </si>
@@ -46,6 +46,24 @@
     <t>Brand</t>
   </si>
   <si>
+    <t>Picture 1</t>
+  </si>
+  <si>
+    <t>Picture 2</t>
+  </si>
+  <si>
+    <t>Picture 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GroupBuy Purchase </t>
+  </si>
+  <si>
+    <t>GroupBuy SellPrice</t>
+  </si>
+  <si>
+    <t>In Store Price</t>
+  </si>
+  <si>
     <t>Silikon Sealant Asam</t>
   </si>
   <si>
@@ -94,7 +112,7 @@
     <t>Silikon Sealant Sosis</t>
   </si>
   <si>
-    <t>590ml / 590ml</t>
+    <t>590ml / HA9900</t>
   </si>
   <si>
     <t>Lem kaca sosis</t>
@@ -378,6 +396,8 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="37.0"/>
     <col customWidth="1" min="4" max="4" width="26.0"/>
+    <col customWidth="1" min="15" max="15" width="19.14"/>
+    <col customWidth="1" min="16" max="16" width="20.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -390,10 +410,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -413,6 +433,24 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -420,34 +458,52 @@
         <v>6.900005030114E12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2">
         <v>0.0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -455,34 +511,52 @@
         <v>6.900005030115E12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2">
         <v>1504.0</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -490,279 +564,423 @@
         <v>6.900005030117E12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.0</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
         <v>6.900005030122E12</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2090.0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2090.0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>19</v>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
         <v>6.900005030118E12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>19</v>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
         <v>6.900005030119E12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2">
+        <v>359.0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1">
-        <v>359.0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>19</v>
+      <c r="L7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
         <v>6.90000503012E12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="J8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>19</v>
+      <c r="L8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3">
         <v>6.900005030113E12</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2">
         <v>20.0</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>19</v>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3">
         <v>6.900005030111E12</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>19</v>
+      <c r="K10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3">
         <v>6.900005030112E12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2">
         <v>0.0</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>19</v>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Product Details.xlsx
+++ b/Product Details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="172">
   <si>
     <t>Product Code</t>
   </si>
@@ -109,6 +109,27 @@
   </si>
   <si>
     <t>vantsing</t>
+  </si>
+  <si>
+    <t>Lem Silikon Sealant Asam Universal
+Perlengketan perakitan kaca rekayasa dalam ruangan / penyegelan mendempul.
+Fitur Produk
+Produk ini adalah satu-komponen, asam, menyembuhkan suhu ruangan, sealant berkualitas tinggi dengan modulus menengah.  Cepat curing, kekuatan lengketan tinggi, kinerja lengketan yang baik untuk berbagai substrat, dan ketahanan terhadap cuaca yang sangat baik.  Setelah curing, masih mempertahankan kinerja yang baik di kisaran -40°C hingga 100°C.
+Aplikasi
+- mengisi celah dan menyegel untuk proyek dekorasi interior 
+- lengketan dan penyegelan berbagai jenis teknik pemasangan pintu dan jendela
+- lengketan dan penyegelan berbagai jenis rekayasa komponen kaca
+- Berbagai penggunaan industri dan konstruksi lainnya
+- Produk ini tidak berlaku untuk rakitan structural
+Pembatasan Aplikasi
+- tidak cocok untuk digunakan pada substrat yang berminyak, plasticize atau pelarut, dan perendaman terus menerus dalam air atau tempat basah sepanjang tahun, dan tempat kedap udara.
+- Suhu permukaan material lebih rendah dari 4°C atau lebih tinggi dari 40°C, tidak cocok untuk digunakan.
+Bahan material Sealant Asam : Siloksan, Karbon Dioksida, Plasticizer, Aditif
+Masa Berlaku : 12 Bulan
+Daya Tahan : 20 Tahun
+Transportasi dan Penyimpanan
+- Produk ini adalah bahan yang tidak mudah terbakar, tidak mudah meledak dan dapat diangkut sebagai barang umum yang tidak berbahaya.
+- Simpan di tempat yang berventilasi, dingin dan kering, suhu penyimpanan dibawah 27°C, dan periode penyimpanan 9 bulan sejak tanggal produksi</t>
   </si>
   <si>
     <t>hitam</t>
@@ -226,11 +247,19 @@
     <t>Stainless</t>
   </si>
   <si>
+    <t>kran air berbahan stainless;
+bisa untuk taman dan indoor</t>
+  </si>
+  <si>
     <t>SHOWEr MANDI PLASTIK</t>
   </si>
   <si>
-    <t>kran plastik berbahan stainless;
-bisa untuk taman dan indoor</t>
+    <t>plastik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shower mandi plastik / chrome
+-warna: silver
+</t>
   </si>
   <si>
     <t>shower</t>
@@ -239,7 +268,10 @@
     <t>SHOWER TOILET PLASTIK</t>
   </si>
   <si>
-    <t>shower jet toilet</t>
+    <t>Jet shower toilet
+bahan: plastik
+kelengkapan: selang + kepala jet shower toilet
+tersedia ukuran kecil dan besar</t>
   </si>
   <si>
     <t>STOP KRAN 1 LOBANG 304 ST</t>
@@ -564,13 +596,41 @@
     <t>Selang putih</t>
   </si>
   <si>
+    <t>selang tanpa kepala</t>
+  </si>
+  <si>
     <t>FLOOR DRAIN 304 PLASTIK</t>
   </si>
   <si>
+    <t>saluran air/got kamar mandi
+-berbahan plastik
+-anti binatang kecil
+-ukuran 10cm x 10cm</t>
+  </si>
+  <si>
     <t>Kran Wastafel/plastik</t>
   </si>
   <si>
+    <t xml:space="preserve">kran wastafel plastik
+-finishing chrome
+</t>
+  </si>
+  <si>
+    <t>kran/faucet</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
     <t>Kran Westafel Aloy</t>
+  </si>
+  <si>
+    <t>alloy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kran wastafel alloy
+-finishing chrome
+</t>
   </si>
   <si>
     <t>乳胶防滑手套 / 9CM / 23CM</t>
@@ -639,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -653,13 +713,22 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -948,7 +1017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="121.5" customHeight="1">
+    <row r="2">
       <c r="A2" s="3">
         <v>6.900005030114E12</v>
       </c>
@@ -958,7 +1027,7 @@
       <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="5">
@@ -1000,12 +1069,12 @@
       <c r="Q2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
     </row>
     <row r="3" ht="115.5" customHeight="1">
       <c r="A3" s="3">
@@ -1014,539 +1083,539 @@
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5">
+        <v>26</v>
+      </c>
+      <c r="E3" s="8">
         <v>1504.0</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="5" t="b">
+      <c r="L3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
+      <c r="P3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
     </row>
     <row r="4" ht="133.5" customHeight="1">
       <c r="A4" s="3">
         <v>6.900005030117E12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5">
+        <v>26</v>
+      </c>
+      <c r="E4" s="8">
         <v>0.0</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="5" t="b">
+      <c r="L4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
+      <c r="P4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
     </row>
     <row r="5" ht="138.0" customHeight="1">
       <c r="A5" s="3">
         <v>6.900005030122E12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
+      <c r="C5" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="5">
+        <v>30</v>
+      </c>
+      <c r="E5" s="8">
         <v>2090.0</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="5" t="b">
+      <c r="L5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
+      <c r="P5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
     </row>
     <row r="6" ht="161.25" customHeight="1">
       <c r="A6" s="3">
         <v>6.900005030118E12</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="C6" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5">
+        <v>33</v>
+      </c>
+      <c r="E6" s="8">
         <v>0.0</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="5" t="b">
+      <c r="L6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
+      <c r="P6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
     </row>
     <row r="7" ht="129.75" customHeight="1">
       <c r="A7" s="3">
         <v>6.900005030119E12</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="C7" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="5">
+        <v>33</v>
+      </c>
+      <c r="E7" s="8">
         <v>359.0</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="J7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="5" t="b">
+      <c r="L7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
+      <c r="P7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
     </row>
     <row r="8" ht="114.75" customHeight="1">
       <c r="A8" s="3">
         <v>6.90000503012E12</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="C8" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="5">
+        <v>33</v>
+      </c>
+      <c r="E8" s="8">
         <v>7.0</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="J8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="5" t="b">
+      <c r="L8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
+      <c r="P8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
     </row>
     <row r="9" ht="99.75" customHeight="1">
       <c r="A9" s="3">
         <v>6.900005030113E12</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="C9" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="5">
+        <v>36</v>
+      </c>
+      <c r="E9" s="8">
         <v>20.0</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="J9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="5" t="b">
+      <c r="L9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
+      <c r="P9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="3">
         <v>6.900005030111E12</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="C10" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="8">
         <v>0.0</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="J10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="5" t="b">
+      <c r="L10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
+      <c r="P10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
     </row>
     <row r="11">
       <c r="A11" s="3">
         <v>6.900005030112E12</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="C11" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="8">
         <v>0.0</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="5" t="b">
+      <c r="L11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
+      <c r="P11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
     </row>
     <row r="12">
       <c r="A12" s="3">
         <v>8.4818090000001E13</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>38</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
@@ -1554,756 +1623,756 @@
       <c r="E12" s="3">
         <v>0.0</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="H12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="I12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="5" t="b">
+      <c r="L12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
+      <c r="P12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="3">
         <v>8.4818090000002E13</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="10">
+        <v>5073.0</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="7">
-        <v>5073.0</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="5" t="b">
+      <c r="L13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
+      <c r="P13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" s="3">
         <v>8.4818039900001E13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="C14" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3">
         <v>417.0</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="H14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="5" t="s">
+      <c r="I14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="5" t="b">
+      <c r="L14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
+      <c r="P14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
     </row>
     <row r="15">
       <c r="A15" s="3">
         <v>8.4248910000001E13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>47</v>
+      <c r="B15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="E15" s="3">
         <v>986.0</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="H15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="5" t="b">
+      <c r="L15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
+      <c r="P15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" s="3">
         <v>8.4242000000001E13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="7">
+        <v>53</v>
+      </c>
+      <c r="E16" s="10">
         <v>1149.0</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="H16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="5" t="b">
+      <c r="L16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
+      <c r="P16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
     </row>
     <row r="17">
       <c r="A17" s="3">
         <v>8.4818040900001E13</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>52</v>
+      <c r="B17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E17" s="3">
         <v>379.0</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="5" t="s">
+      <c r="H17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="5" t="b">
+      <c r="L17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
+      <c r="P17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
     </row>
     <row r="18">
       <c r="A18" s="3">
         <v>8.4818040900002E13</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="7">
+        <v>59</v>
+      </c>
+      <c r="E18" s="10">
         <v>1631.0</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="F18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="5" t="s">
+      <c r="H18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="5" t="s">
+      <c r="I18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="5" t="b">
+      <c r="L18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
+      <c r="P18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
     </row>
     <row r="19">
       <c r="A19" s="3">
         <v>7.3239300000001E13</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>52</v>
+      <c r="B19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="7">
+        <v>61</v>
+      </c>
+      <c r="E19" s="10">
         <v>1340.0</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="H19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="5" t="s">
+      <c r="I19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="5" t="b">
+      <c r="L19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
+      <c r="P19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
     </row>
     <row r="20">
       <c r="A20" s="3">
         <v>8.3071000000001E13</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>60</v>
+      <c r="B20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E20" s="3">
         <v>139.0</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="5" t="s">
+      <c r="H20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="5" t="b">
+      <c r="L20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
+      <c r="P20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
     </row>
     <row r="21">
       <c r="A21" s="3">
         <v>8.3071000000002E13</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>64</v>
+      <c r="B21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E21" s="3">
         <v>884.0</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="5" t="s">
+      <c r="H21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="5" t="b">
+      <c r="L21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
+      <c r="P21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
     </row>
     <row r="22">
       <c r="A22" s="3">
         <v>8.3071000000003E13</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>67</v>
+      <c r="B22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E22" s="3">
         <v>220.0</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="5" t="s">
+      <c r="H22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="5" t="b">
+      <c r="L22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="P22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
+      <c r="P22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
     </row>
     <row r="23">
       <c r="A23" s="3">
         <v>6.900003011111E12</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="3">
         <v>17.0</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
     </row>
     <row r="24">
       <c r="A24" s="3">
         <v>6.900012093011E12</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="3">
         <v>0.0</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
     </row>
     <row r="25">
       <c r="A25" s="3">
         <v>6.900010105711E12</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>73</v>
+      <c r="B25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E25" s="3">
         <v>3.0</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
     </row>
     <row r="26">
       <c r="A26" s="3">
         <v>6.900010106712E12</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2312,83 +2381,83 @@
       <c r="E26" s="3">
         <v>364.0</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
+      <c r="J26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
     </row>
     <row r="27">
       <c r="A27" s="3">
         <v>6.900005030211E12</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>81</v>
+      <c r="B27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E27" s="3">
         <v>636.0</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
+      <c r="I27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
     </row>
     <row r="28">
       <c r="A28" s="3">
         <v>6.900005030212E12</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>85</v>
+      <c r="B28" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>20</v>
@@ -2396,4520 +2465,4568 @@
       <c r="E28" s="3">
         <v>0.0</v>
       </c>
-      <c r="F28" s="6"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
     </row>
     <row r="29">
       <c r="A29" s="3">
         <v>6.900010108511E12</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>88</v>
+      <c r="B29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E29" s="3">
         <v>50.0</v>
       </c>
-      <c r="F29" s="6"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
     </row>
     <row r="30">
       <c r="A30" s="3">
         <v>6.900003010312E12</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E30" s="3">
         <v>5.0</v>
       </c>
-      <c r="F30" s="6"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
     </row>
     <row r="31">
       <c r="A31" s="3">
         <v>6.900003010211E12</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E31" s="3">
         <v>5.0</v>
       </c>
-      <c r="F31" s="6"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
     </row>
     <row r="32">
       <c r="A32" s="3">
         <v>6.900003010711E12</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="B32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>5.0</v>
       </c>
-      <c r="F32" s="6"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
     </row>
     <row r="33">
       <c r="A33" s="3">
         <v>7.3084091E7</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E33" s="3">
         <v>5.0</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="7"/>
       <c r="G33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
     </row>
     <row r="34">
       <c r="A34" s="3">
         <v>6.900010106811E12</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E34" s="3">
         <v>0.0</v>
       </c>
-      <c r="F34" s="6"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
     </row>
     <row r="35">
       <c r="A35" s="3">
         <v>6.900003010312E12</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E35" s="3">
         <v>5.0</v>
       </c>
-      <c r="F35" s="6"/>
+      <c r="F35" s="7"/>
       <c r="G35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
     </row>
     <row r="36">
       <c r="A36" s="3">
         <v>6.900003011311E12</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E36" s="3">
         <v>4.0</v>
       </c>
-      <c r="F36" s="6"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
     </row>
     <row r="37">
       <c r="A37" s="3">
         <v>6.900003011411E12</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E37" s="3">
         <v>5.0</v>
       </c>
-      <c r="F37" s="6"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
     </row>
     <row r="38">
       <c r="A38" s="3">
         <v>6.401990000001E12</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="B38" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E38" s="3">
         <v>439.0</v>
       </c>
-      <c r="F38" s="6"/>
+      <c r="F38" s="7"/>
       <c r="G38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
     </row>
     <row r="39">
       <c r="A39" s="3">
         <v>6.11693009E9</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="7">
+        <v>117</v>
+      </c>
+      <c r="E39" s="10">
         <v>10000.0</v>
       </c>
-      <c r="F39" s="6"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
     </row>
     <row r="40">
       <c r="A40" s="3">
         <v>6.900010107011E12</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E40" s="3">
         <v>170.0</v>
       </c>
-      <c r="F40" s="6"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E41" s="3">
         <v>60.0</v>
       </c>
-      <c r="F41" s="6"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
     </row>
     <row r="42">
       <c r="A42" s="3">
         <v>3.925900000002E12</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>121</v>
+      <c r="B42" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="10">
+        <v>8135.0</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I42" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="7">
-        <v>8135.0</v>
-      </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
     </row>
     <row r="43">
       <c r="A43" s="3">
         <v>3.925900000003E12</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>124</v>
+      <c r="B43" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E43" s="3">
         <v>464.0</v>
       </c>
-      <c r="F43" s="6"/>
+      <c r="F43" s="7"/>
       <c r="G43" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
     </row>
     <row r="44">
       <c r="A44" s="3">
         <v>7.308900000003E12</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>127</v>
+      <c r="B44" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E44" s="3">
         <v>227.0</v>
       </c>
-      <c r="F44" s="6"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
     </row>
     <row r="45">
       <c r="A45" s="3">
         <v>7.3079200000004E13</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>127</v>
+      <c r="B45" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E45" s="3">
         <v>361.0</v>
       </c>
-      <c r="F45" s="6"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
     </row>
     <row r="46">
       <c r="A46" s="3">
         <v>8.302410000003E12</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>131</v>
+      <c r="B46" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E46" s="7">
+        <v>135</v>
+      </c>
+      <c r="E46" s="10">
         <v>1082.0</v>
       </c>
-      <c r="F46" s="6"/>
+      <c r="F46" s="7"/>
       <c r="G46" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
     </row>
     <row r="47">
       <c r="A47" s="3">
         <v>8.302410000002E12</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>131</v>
+      <c r="B47" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E47" s="3">
         <v>50.0</v>
       </c>
-      <c r="F47" s="6"/>
+      <c r="F47" s="7"/>
       <c r="G47" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
     </row>
     <row r="48">
       <c r="A48" s="3">
         <v>6.900011045213E12</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E48" s="7">
+      <c r="E48" s="10">
         <v>1487.0</v>
       </c>
-      <c r="F48" s="6"/>
+      <c r="F48" s="7"/>
       <c r="G48" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
     </row>
     <row r="49">
       <c r="A49" s="3">
         <v>7.307920000003E12</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="5" t="s">
+      <c r="B49" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E49" s="7">
+        <v>139</v>
+      </c>
+      <c r="E49" s="10">
         <v>4644.0</v>
       </c>
-      <c r="F49" s="6"/>
+      <c r="F49" s="7"/>
       <c r="G49" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
     </row>
     <row r="50">
       <c r="A50" s="3">
         <v>3.923500000003E12</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="5" t="s">
+      <c r="B50" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E50" s="3">
         <v>814.0</v>
       </c>
-      <c r="F50" s="6"/>
+      <c r="F50" s="7"/>
       <c r="G50" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
     </row>
     <row r="51">
       <c r="A51" s="3">
         <v>3.923500000004E12</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" s="5" t="s">
+      <c r="B51" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E51" s="7">
+        <v>139</v>
+      </c>
+      <c r="E51" s="10">
         <v>13931.0</v>
       </c>
-      <c r="F51" s="6"/>
+      <c r="F51" s="7"/>
       <c r="G51" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
     </row>
     <row r="52">
       <c r="A52" s="3">
         <v>6.900011045215E12</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E52" s="7">
+      <c r="E52" s="10">
         <v>2292.0</v>
       </c>
-      <c r="F52" s="6"/>
+      <c r="F52" s="7"/>
       <c r="G52" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
     </row>
     <row r="53">
       <c r="A53" s="3">
         <v>6.900011045214E12</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="B53" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E53" s="7">
+        <v>139</v>
+      </c>
+      <c r="E53" s="10">
         <v>3659.0</v>
       </c>
-      <c r="F53" s="6"/>
+      <c r="F53" s="7"/>
       <c r="G53" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="8"/>
+      <c r="B54" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="11"/>
       <c r="E54" s="3">
         <v>540.0</v>
       </c>
-      <c r="F54" s="6"/>
+      <c r="F54" s="7"/>
       <c r="G54" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="8"/>
+      <c r="B55" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="11"/>
       <c r="E55" s="3">
         <v>87.0</v>
       </c>
-      <c r="F55" s="6"/>
+      <c r="F55" s="7"/>
       <c r="G55" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
     </row>
     <row r="56">
       <c r="A56" s="3">
         <v>6.900003011312E12</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="8"/>
+      <c r="B56" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="11"/>
       <c r="E56" s="3">
         <v>12.0</v>
       </c>
-      <c r="F56" s="6"/>
+      <c r="F56" s="7"/>
       <c r="G56" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
     </row>
     <row r="57">
       <c r="A57" s="3">
         <v>6.900003010911E12</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="8"/>
+      <c r="B57" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="11"/>
       <c r="E57" s="3">
         <v>3.0</v>
       </c>
-      <c r="F57" s="6"/>
+      <c r="F57" s="7"/>
       <c r="G57" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
     </row>
     <row r="58">
       <c r="A58" s="3">
         <v>6.900012090311E12</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="7">
+      <c r="B58" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="10">
         <v>5000.0</v>
       </c>
-      <c r="F58" s="6"/>
+      <c r="F58" s="7"/>
       <c r="G58" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
     </row>
     <row r="59">
       <c r="A59" s="3">
         <v>6.900010101412E12</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="8"/>
+      <c r="B59" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="11"/>
       <c r="E59" s="3">
         <v>38.0</v>
       </c>
-      <c r="F59" s="6"/>
+      <c r="F59" s="7"/>
       <c r="G59" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
     </row>
     <row r="60">
       <c r="A60" s="3">
         <v>8.20559000001E12</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="8"/>
+      <c r="B60" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="11"/>
       <c r="E60" s="3">
         <v>0.0</v>
       </c>
-      <c r="F60" s="6"/>
+      <c r="F60" s="7"/>
       <c r="G60" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
     </row>
     <row r="61">
       <c r="A61" s="3">
         <v>6.900005050311E12</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="8"/>
+      <c r="B61" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="11"/>
       <c r="E61" s="3">
         <v>6.0</v>
       </c>
-      <c r="F61" s="6"/>
+      <c r="F61" s="7"/>
       <c r="G61" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
     </row>
     <row r="62">
       <c r="A62" s="3">
         <v>6.11430009E9</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="8"/>
+      <c r="B62" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="11"/>
       <c r="E62" s="3">
         <v>863.0</v>
       </c>
-      <c r="F62" s="6"/>
+      <c r="F62" s="7"/>
       <c r="G62" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
     </row>
     <row r="63">
-      <c r="A63" s="9">
+      <c r="A63" s="12">
         <v>8.4818080000003E13</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="7">
+      <c r="B63" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="10">
         <v>3971.0</v>
       </c>
-      <c r="F63" s="6"/>
+      <c r="F63" s="7"/>
       <c r="G63" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
     </row>
     <row r="64">
       <c r="A64" s="3">
         <v>8.4242000000003E13</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="7">
+      <c r="B64" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E64" s="10">
         <v>1972.0</v>
       </c>
-      <c r="F64" s="6"/>
+      <c r="F64" s="7"/>
       <c r="G64" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
     </row>
     <row r="65">
       <c r="A65" s="3">
         <v>8.42420000000003E14</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="8"/>
+      <c r="B65" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="E65" s="3">
         <v>909.0</v>
       </c>
-      <c r="F65" s="6"/>
+      <c r="F65" s="7"/>
       <c r="G65" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
     </row>
     <row r="66">
       <c r="A66" s="3">
         <v>3.9172100000001E13</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="8"/>
+      <c r="B66" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="E66" s="3">
         <v>853.0</v>
       </c>
-      <c r="F66" s="6"/>
+      <c r="F66" s="7"/>
       <c r="G66" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
     </row>
     <row r="67">
       <c r="A67" s="3">
         <v>7.3065000000001E13</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="8"/>
+      <c r="B67" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="E67" s="3">
         <v>264.0</v>
       </c>
-      <c r="F67" s="6"/>
+      <c r="F67" s="7"/>
       <c r="G67" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
-      <c r="W67" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
     </row>
     <row r="68">
       <c r="A68" s="3">
         <v>6.900010106011E12</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="8"/>
+      <c r="B68" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="11"/>
       <c r="E68" s="3">
         <v>800.0</v>
       </c>
-      <c r="F68" s="6"/>
+      <c r="F68" s="7"/>
       <c r="G68" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
     </row>
     <row r="69">
       <c r="A69" s="3">
         <v>8.4818039900005E13</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="7">
+      <c r="B69" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="10">
         <v>1844.0</v>
       </c>
-      <c r="F69" s="6"/>
+      <c r="F69" s="7"/>
       <c r="G69" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="6"/>
-      <c r="W69" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
     </row>
     <row r="70">
       <c r="A70" s="3">
         <v>6.900003010811E12</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="8"/>
+      <c r="B70" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="11"/>
       <c r="E70" s="3">
         <v>1.0</v>
       </c>
-      <c r="F70" s="6"/>
+      <c r="F70" s="7"/>
       <c r="G70" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
     </row>
     <row r="71">
       <c r="A71" s="3">
         <v>6.900003011111E12</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="8"/>
+      <c r="B71" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="11"/>
       <c r="E71" s="3">
         <v>15.0</v>
       </c>
-      <c r="F71" s="6"/>
+      <c r="F71" s="7"/>
       <c r="G71" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="6"/>
-      <c r="W71" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
     </row>
     <row r="72">
       <c r="A72" s="3">
         <v>8.4818039900006E13</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="8"/>
+      <c r="B72" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="11"/>
       <c r="E72" s="3">
         <v>51.0</v>
       </c>
-      <c r="F72" s="6"/>
+      <c r="F72" s="7"/>
       <c r="G72" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="6"/>
-      <c r="V72" s="6"/>
-      <c r="W72" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="8"/>
+      <c r="B73" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="11"/>
       <c r="E73" s="3">
         <v>0.0</v>
       </c>
-      <c r="F73" s="6"/>
+      <c r="F73" s="7"/>
       <c r="G73" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="6"/>
-      <c r="V73" s="6"/>
-      <c r="W73" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
     </row>
     <row r="74">
       <c r="A74" s="3">
         <v>8.302410000004E12</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="8"/>
+      <c r="B74" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="11"/>
       <c r="E74" s="3">
         <v>0.0</v>
       </c>
-      <c r="F74" s="6"/>
+      <c r="F74" s="7"/>
       <c r="G74" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
-      <c r="V74" s="6"/>
-      <c r="W74" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
     </row>
     <row r="75">
-      <c r="D75" s="8"/>
+      <c r="D75" s="11"/>
     </row>
     <row r="76">
-      <c r="D76" s="8"/>
+      <c r="D76" s="11"/>
     </row>
     <row r="77">
-      <c r="D77" s="8"/>
+      <c r="D77" s="11"/>
     </row>
     <row r="78">
-      <c r="D78" s="8"/>
+      <c r="D78" s="11"/>
     </row>
     <row r="79">
-      <c r="D79" s="8"/>
+      <c r="D79" s="11"/>
     </row>
     <row r="80">
-      <c r="D80" s="8"/>
+      <c r="D80" s="11"/>
     </row>
     <row r="81">
-      <c r="D81" s="8"/>
+      <c r="D81" s="11"/>
     </row>
     <row r="82">
-      <c r="D82" s="8"/>
+      <c r="D82" s="11"/>
     </row>
     <row r="83">
-      <c r="D83" s="8"/>
+      <c r="D83" s="11"/>
     </row>
     <row r="84">
-      <c r="D84" s="8"/>
+      <c r="D84" s="11"/>
     </row>
     <row r="85">
-      <c r="D85" s="8"/>
+      <c r="D85" s="11"/>
     </row>
     <row r="86">
-      <c r="D86" s="8"/>
+      <c r="D86" s="11"/>
     </row>
     <row r="87">
-      <c r="D87" s="8"/>
+      <c r="D87" s="11"/>
     </row>
     <row r="88">
-      <c r="D88" s="8"/>
+      <c r="D88" s="11"/>
     </row>
     <row r="89">
-      <c r="D89" s="8"/>
+      <c r="D89" s="11"/>
     </row>
     <row r="90">
-      <c r="D90" s="8"/>
+      <c r="D90" s="11"/>
     </row>
     <row r="91">
-      <c r="D91" s="8"/>
+      <c r="D91" s="11"/>
     </row>
     <row r="92">
-      <c r="D92" s="8"/>
+      <c r="D92" s="11"/>
     </row>
     <row r="93">
-      <c r="D93" s="8"/>
+      <c r="D93" s="11"/>
     </row>
     <row r="94">
-      <c r="D94" s="8"/>
+      <c r="D94" s="11"/>
     </row>
     <row r="95">
-      <c r="D95" s="8"/>
+      <c r="D95" s="11"/>
     </row>
     <row r="96">
-      <c r="D96" s="8"/>
+      <c r="D96" s="11"/>
     </row>
     <row r="97">
-      <c r="D97" s="8"/>
+      <c r="D97" s="11"/>
     </row>
     <row r="98">
-      <c r="D98" s="8"/>
+      <c r="D98" s="11"/>
     </row>
     <row r="99">
-      <c r="D99" s="8"/>
+      <c r="D99" s="11"/>
     </row>
     <row r="100">
-      <c r="D100" s="8"/>
+      <c r="D100" s="11"/>
     </row>
     <row r="101">
-      <c r="D101" s="8"/>
+      <c r="D101" s="11"/>
     </row>
     <row r="102">
-      <c r="D102" s="8"/>
+      <c r="D102" s="11"/>
     </row>
     <row r="103">
-      <c r="D103" s="8"/>
+      <c r="D103" s="11"/>
     </row>
     <row r="104">
-      <c r="D104" s="8"/>
+      <c r="D104" s="11"/>
     </row>
     <row r="105">
-      <c r="D105" s="8"/>
+      <c r="D105" s="11"/>
     </row>
     <row r="106">
-      <c r="D106" s="8"/>
+      <c r="D106" s="11"/>
     </row>
     <row r="107">
-      <c r="D107" s="8"/>
+      <c r="D107" s="11"/>
     </row>
     <row r="108">
-      <c r="D108" s="8"/>
+      <c r="D108" s="11"/>
     </row>
     <row r="109">
-      <c r="D109" s="8"/>
+      <c r="D109" s="11"/>
     </row>
     <row r="110">
-      <c r="D110" s="8"/>
+      <c r="D110" s="11"/>
     </row>
     <row r="111">
-      <c r="D111" s="8"/>
+      <c r="D111" s="11"/>
     </row>
     <row r="112">
-      <c r="D112" s="8"/>
+      <c r="D112" s="11"/>
     </row>
     <row r="113">
-      <c r="D113" s="8"/>
+      <c r="D113" s="11"/>
     </row>
     <row r="114">
-      <c r="D114" s="8"/>
+      <c r="D114" s="11"/>
     </row>
     <row r="115">
-      <c r="D115" s="8"/>
+      <c r="D115" s="11"/>
     </row>
     <row r="116">
-      <c r="D116" s="8"/>
+      <c r="D116" s="11"/>
     </row>
     <row r="117">
-      <c r="D117" s="8"/>
+      <c r="D117" s="11"/>
     </row>
     <row r="118">
-      <c r="D118" s="8"/>
+      <c r="D118" s="11"/>
     </row>
     <row r="119">
-      <c r="D119" s="8"/>
+      <c r="D119" s="11"/>
     </row>
     <row r="120">
-      <c r="D120" s="8"/>
+      <c r="D120" s="11"/>
     </row>
     <row r="121">
-      <c r="D121" s="8"/>
+      <c r="D121" s="11"/>
     </row>
     <row r="122">
-      <c r="D122" s="8"/>
+      <c r="D122" s="11"/>
     </row>
     <row r="123">
-      <c r="D123" s="8"/>
+      <c r="D123" s="11"/>
     </row>
     <row r="124">
-      <c r="D124" s="8"/>
+      <c r="D124" s="11"/>
     </row>
     <row r="125">
-      <c r="D125" s="8"/>
+      <c r="D125" s="11"/>
     </row>
     <row r="126">
-      <c r="D126" s="8"/>
+      <c r="D126" s="11"/>
     </row>
     <row r="127">
-      <c r="D127" s="8"/>
+      <c r="D127" s="11"/>
     </row>
     <row r="128">
-      <c r="D128" s="8"/>
+      <c r="D128" s="11"/>
     </row>
     <row r="129">
-      <c r="D129" s="8"/>
+      <c r="D129" s="11"/>
     </row>
     <row r="130">
-      <c r="D130" s="8"/>
+      <c r="D130" s="11"/>
     </row>
     <row r="131">
-      <c r="D131" s="8"/>
+      <c r="D131" s="11"/>
     </row>
     <row r="132">
-      <c r="D132" s="8"/>
+      <c r="D132" s="11"/>
     </row>
     <row r="133">
-      <c r="D133" s="8"/>
+      <c r="D133" s="11"/>
     </row>
     <row r="134">
-      <c r="D134" s="8"/>
+      <c r="D134" s="11"/>
     </row>
     <row r="135">
-      <c r="D135" s="8"/>
+      <c r="D135" s="11"/>
     </row>
     <row r="136">
-      <c r="D136" s="8"/>
+      <c r="D136" s="11"/>
     </row>
     <row r="137">
-      <c r="D137" s="8"/>
+      <c r="D137" s="11"/>
     </row>
     <row r="138">
-      <c r="D138" s="8"/>
+      <c r="D138" s="11"/>
     </row>
     <row r="139">
-      <c r="D139" s="8"/>
+      <c r="D139" s="11"/>
     </row>
     <row r="140">
-      <c r="D140" s="8"/>
+      <c r="D140" s="11"/>
     </row>
     <row r="141">
-      <c r="D141" s="8"/>
+      <c r="D141" s="11"/>
     </row>
     <row r="142">
-      <c r="D142" s="8"/>
+      <c r="D142" s="11"/>
     </row>
     <row r="143">
-      <c r="D143" s="8"/>
+      <c r="D143" s="11"/>
     </row>
     <row r="144">
-      <c r="D144" s="8"/>
+      <c r="D144" s="11"/>
     </row>
     <row r="145">
-      <c r="D145" s="8"/>
+      <c r="D145" s="11"/>
     </row>
     <row r="146">
-      <c r="D146" s="8"/>
+      <c r="D146" s="11"/>
     </row>
     <row r="147">
-      <c r="D147" s="8"/>
+      <c r="D147" s="11"/>
     </row>
     <row r="148">
-      <c r="D148" s="8"/>
+      <c r="D148" s="11"/>
     </row>
     <row r="149">
-      <c r="D149" s="8"/>
+      <c r="D149" s="11"/>
     </row>
     <row r="150">
-      <c r="D150" s="8"/>
+      <c r="D150" s="11"/>
     </row>
     <row r="151">
-      <c r="D151" s="8"/>
+      <c r="D151" s="11"/>
     </row>
     <row r="152">
-      <c r="D152" s="8"/>
+      <c r="D152" s="11"/>
     </row>
     <row r="153">
-      <c r="D153" s="8"/>
+      <c r="D153" s="11"/>
     </row>
     <row r="154">
-      <c r="D154" s="8"/>
+      <c r="D154" s="11"/>
     </row>
     <row r="155">
-      <c r="D155" s="8"/>
+      <c r="D155" s="11"/>
     </row>
     <row r="156">
-      <c r="D156" s="8"/>
+      <c r="D156" s="11"/>
     </row>
     <row r="157">
-      <c r="D157" s="8"/>
+      <c r="D157" s="11"/>
     </row>
     <row r="158">
-      <c r="D158" s="8"/>
+      <c r="D158" s="11"/>
     </row>
     <row r="159">
-      <c r="D159" s="8"/>
+      <c r="D159" s="11"/>
     </row>
     <row r="160">
-      <c r="D160" s="8"/>
+      <c r="D160" s="11"/>
     </row>
     <row r="161">
-      <c r="D161" s="8"/>
+      <c r="D161" s="11"/>
     </row>
     <row r="162">
-      <c r="D162" s="8"/>
+      <c r="D162" s="11"/>
     </row>
     <row r="163">
-      <c r="D163" s="8"/>
+      <c r="D163" s="11"/>
     </row>
     <row r="164">
-      <c r="D164" s="8"/>
+      <c r="D164" s="11"/>
     </row>
     <row r="165">
-      <c r="D165" s="8"/>
+      <c r="D165" s="11"/>
     </row>
     <row r="166">
-      <c r="D166" s="8"/>
+      <c r="D166" s="11"/>
     </row>
     <row r="167">
-      <c r="D167" s="8"/>
+      <c r="D167" s="11"/>
     </row>
     <row r="168">
-      <c r="D168" s="8"/>
+      <c r="D168" s="11"/>
     </row>
     <row r="169">
-      <c r="D169" s="8"/>
+      <c r="D169" s="11"/>
     </row>
     <row r="170">
-      <c r="D170" s="8"/>
+      <c r="D170" s="11"/>
     </row>
     <row r="171">
-      <c r="D171" s="8"/>
+      <c r="D171" s="11"/>
     </row>
     <row r="172">
-      <c r="D172" s="8"/>
+      <c r="D172" s="11"/>
     </row>
     <row r="173">
-      <c r="D173" s="8"/>
+      <c r="D173" s="11"/>
     </row>
     <row r="174">
-      <c r="D174" s="8"/>
+      <c r="D174" s="11"/>
     </row>
     <row r="175">
-      <c r="D175" s="8"/>
+      <c r="D175" s="11"/>
     </row>
     <row r="176">
-      <c r="D176" s="8"/>
+      <c r="D176" s="11"/>
     </row>
     <row r="177">
-      <c r="D177" s="8"/>
+      <c r="D177" s="11"/>
     </row>
     <row r="178">
-      <c r="D178" s="8"/>
+      <c r="D178" s="11"/>
     </row>
     <row r="179">
-      <c r="D179" s="8"/>
+      <c r="D179" s="11"/>
     </row>
     <row r="180">
-      <c r="D180" s="8"/>
+      <c r="D180" s="11"/>
     </row>
     <row r="181">
-      <c r="D181" s="8"/>
+      <c r="D181" s="11"/>
     </row>
     <row r="182">
-      <c r="D182" s="8"/>
+      <c r="D182" s="11"/>
     </row>
     <row r="183">
-      <c r="D183" s="8"/>
+      <c r="D183" s="11"/>
     </row>
     <row r="184">
-      <c r="D184" s="8"/>
+      <c r="D184" s="11"/>
     </row>
     <row r="185">
-      <c r="D185" s="8"/>
+      <c r="D185" s="11"/>
     </row>
     <row r="186">
-      <c r="D186" s="8"/>
+      <c r="D186" s="11"/>
     </row>
     <row r="187">
-      <c r="D187" s="8"/>
+      <c r="D187" s="11"/>
     </row>
     <row r="188">
-      <c r="D188" s="8"/>
+      <c r="D188" s="11"/>
     </row>
     <row r="189">
-      <c r="D189" s="8"/>
+      <c r="D189" s="11"/>
     </row>
     <row r="190">
-      <c r="D190" s="8"/>
+      <c r="D190" s="11"/>
     </row>
     <row r="191">
-      <c r="D191" s="8"/>
+      <c r="D191" s="11"/>
     </row>
     <row r="192">
-      <c r="D192" s="8"/>
+      <c r="D192" s="11"/>
     </row>
     <row r="193">
-      <c r="D193" s="8"/>
+      <c r="D193" s="11"/>
     </row>
     <row r="194">
-      <c r="D194" s="8"/>
+      <c r="D194" s="11"/>
     </row>
     <row r="195">
-      <c r="D195" s="8"/>
+      <c r="D195" s="11"/>
     </row>
     <row r="196">
-      <c r="D196" s="8"/>
+      <c r="D196" s="11"/>
     </row>
     <row r="197">
-      <c r="D197" s="8"/>
+      <c r="D197" s="11"/>
     </row>
     <row r="198">
-      <c r="D198" s="8"/>
+      <c r="D198" s="11"/>
     </row>
     <row r="199">
-      <c r="D199" s="8"/>
+      <c r="D199" s="11"/>
     </row>
     <row r="200">
-      <c r="D200" s="8"/>
+      <c r="D200" s="11"/>
     </row>
     <row r="201">
-      <c r="D201" s="8"/>
+      <c r="D201" s="11"/>
     </row>
     <row r="202">
-      <c r="D202" s="8"/>
+      <c r="D202" s="11"/>
     </row>
     <row r="203">
-      <c r="D203" s="8"/>
+      <c r="D203" s="11"/>
     </row>
     <row r="204">
-      <c r="D204" s="8"/>
+      <c r="D204" s="11"/>
     </row>
     <row r="205">
-      <c r="D205" s="8"/>
+      <c r="D205" s="11"/>
     </row>
     <row r="206">
-      <c r="D206" s="8"/>
+      <c r="D206" s="11"/>
     </row>
     <row r="207">
-      <c r="D207" s="8"/>
+      <c r="D207" s="11"/>
     </row>
     <row r="208">
-      <c r="D208" s="8"/>
+      <c r="D208" s="11"/>
     </row>
     <row r="209">
-      <c r="D209" s="8"/>
+      <c r="D209" s="11"/>
     </row>
     <row r="210">
-      <c r="D210" s="8"/>
+      <c r="D210" s="11"/>
     </row>
     <row r="211">
-      <c r="D211" s="8"/>
+      <c r="D211" s="11"/>
     </row>
     <row r="212">
-      <c r="D212" s="8"/>
+      <c r="D212" s="11"/>
     </row>
     <row r="213">
-      <c r="D213" s="8"/>
+      <c r="D213" s="11"/>
     </row>
     <row r="214">
-      <c r="D214" s="8"/>
+      <c r="D214" s="11"/>
     </row>
     <row r="215">
-      <c r="D215" s="8"/>
+      <c r="D215" s="11"/>
     </row>
     <row r="216">
-      <c r="D216" s="8"/>
+      <c r="D216" s="11"/>
     </row>
     <row r="217">
-      <c r="D217" s="8"/>
+      <c r="D217" s="11"/>
     </row>
     <row r="218">
-      <c r="D218" s="8"/>
+      <c r="D218" s="11"/>
     </row>
     <row r="219">
-      <c r="D219" s="8"/>
+      <c r="D219" s="11"/>
     </row>
     <row r="220">
-      <c r="D220" s="8"/>
+      <c r="D220" s="11"/>
     </row>
     <row r="221">
-      <c r="D221" s="8"/>
+      <c r="D221" s="11"/>
     </row>
     <row r="222">
-      <c r="D222" s="8"/>
+      <c r="D222" s="11"/>
     </row>
     <row r="223">
-      <c r="D223" s="8"/>
+      <c r="D223" s="11"/>
     </row>
     <row r="224">
-      <c r="D224" s="8"/>
+      <c r="D224" s="11"/>
     </row>
     <row r="225">
-      <c r="D225" s="8"/>
+      <c r="D225" s="11"/>
     </row>
     <row r="226">
-      <c r="D226" s="8"/>
+      <c r="D226" s="11"/>
     </row>
     <row r="227">
-      <c r="D227" s="8"/>
+      <c r="D227" s="11"/>
     </row>
     <row r="228">
-      <c r="D228" s="8"/>
+      <c r="D228" s="11"/>
     </row>
     <row r="229">
-      <c r="D229" s="8"/>
+      <c r="D229" s="11"/>
     </row>
     <row r="230">
-      <c r="D230" s="8"/>
+      <c r="D230" s="11"/>
     </row>
     <row r="231">
-      <c r="D231" s="8"/>
+      <c r="D231" s="11"/>
     </row>
     <row r="232">
-      <c r="D232" s="8"/>
+      <c r="D232" s="11"/>
     </row>
     <row r="233">
-      <c r="D233" s="8"/>
+      <c r="D233" s="11"/>
     </row>
     <row r="234">
-      <c r="D234" s="8"/>
+      <c r="D234" s="11"/>
     </row>
     <row r="235">
-      <c r="D235" s="8"/>
+      <c r="D235" s="11"/>
     </row>
     <row r="236">
-      <c r="D236" s="8"/>
+      <c r="D236" s="11"/>
     </row>
     <row r="237">
-      <c r="D237" s="8"/>
+      <c r="D237" s="11"/>
     </row>
     <row r="238">
-      <c r="D238" s="8"/>
+      <c r="D238" s="11"/>
     </row>
     <row r="239">
-      <c r="D239" s="8"/>
+      <c r="D239" s="11"/>
     </row>
     <row r="240">
-      <c r="D240" s="8"/>
+      <c r="D240" s="11"/>
     </row>
     <row r="241">
-      <c r="D241" s="8"/>
+      <c r="D241" s="11"/>
     </row>
     <row r="242">
-      <c r="D242" s="8"/>
+      <c r="D242" s="11"/>
     </row>
     <row r="243">
-      <c r="D243" s="8"/>
+      <c r="D243" s="11"/>
     </row>
     <row r="244">
-      <c r="D244" s="8"/>
+      <c r="D244" s="11"/>
     </row>
     <row r="245">
-      <c r="D245" s="8"/>
+      <c r="D245" s="11"/>
     </row>
     <row r="246">
-      <c r="D246" s="8"/>
+      <c r="D246" s="11"/>
     </row>
     <row r="247">
-      <c r="D247" s="8"/>
+      <c r="D247" s="11"/>
     </row>
     <row r="248">
-      <c r="D248" s="8"/>
+      <c r="D248" s="11"/>
     </row>
     <row r="249">
-      <c r="D249" s="8"/>
+      <c r="D249" s="11"/>
     </row>
     <row r="250">
-      <c r="D250" s="8"/>
+      <c r="D250" s="11"/>
     </row>
     <row r="251">
-      <c r="D251" s="8"/>
+      <c r="D251" s="11"/>
     </row>
     <row r="252">
-      <c r="D252" s="8"/>
+      <c r="D252" s="11"/>
     </row>
     <row r="253">
-      <c r="D253" s="8"/>
+      <c r="D253" s="11"/>
     </row>
     <row r="254">
-      <c r="D254" s="8"/>
+      <c r="D254" s="11"/>
     </row>
     <row r="255">
-      <c r="D255" s="8"/>
+      <c r="D255" s="11"/>
     </row>
     <row r="256">
-      <c r="D256" s="8"/>
+      <c r="D256" s="11"/>
     </row>
     <row r="257">
-      <c r="D257" s="8"/>
+      <c r="D257" s="11"/>
     </row>
     <row r="258">
-      <c r="D258" s="8"/>
+      <c r="D258" s="11"/>
     </row>
     <row r="259">
-      <c r="D259" s="8"/>
+      <c r="D259" s="11"/>
     </row>
     <row r="260">
-      <c r="D260" s="8"/>
+      <c r="D260" s="11"/>
     </row>
     <row r="261">
-      <c r="D261" s="8"/>
+      <c r="D261" s="11"/>
     </row>
     <row r="262">
-      <c r="D262" s="8"/>
+      <c r="D262" s="11"/>
     </row>
     <row r="263">
-      <c r="D263" s="8"/>
+      <c r="D263" s="11"/>
     </row>
     <row r="264">
-      <c r="D264" s="8"/>
+      <c r="D264" s="11"/>
     </row>
     <row r="265">
-      <c r="D265" s="8"/>
+      <c r="D265" s="11"/>
     </row>
     <row r="266">
-      <c r="D266" s="8"/>
+      <c r="D266" s="11"/>
     </row>
     <row r="267">
-      <c r="D267" s="8"/>
+      <c r="D267" s="11"/>
     </row>
     <row r="268">
-      <c r="D268" s="8"/>
+      <c r="D268" s="11"/>
     </row>
     <row r="269">
-      <c r="D269" s="8"/>
+      <c r="D269" s="11"/>
     </row>
     <row r="270">
-      <c r="D270" s="8"/>
+      <c r="D270" s="11"/>
     </row>
     <row r="271">
-      <c r="D271" s="8"/>
+      <c r="D271" s="11"/>
     </row>
     <row r="272">
-      <c r="D272" s="8"/>
+      <c r="D272" s="11"/>
     </row>
     <row r="273">
-      <c r="D273" s="8"/>
+      <c r="D273" s="11"/>
     </row>
     <row r="274">
-      <c r="D274" s="8"/>
+      <c r="D274" s="11"/>
     </row>
     <row r="275">
-      <c r="D275" s="8"/>
+      <c r="D275" s="11"/>
     </row>
     <row r="276">
-      <c r="D276" s="8"/>
+      <c r="D276" s="11"/>
     </row>
     <row r="277">
-      <c r="D277" s="8"/>
+      <c r="D277" s="11"/>
     </row>
     <row r="278">
-      <c r="D278" s="8"/>
+      <c r="D278" s="11"/>
     </row>
     <row r="279">
-      <c r="D279" s="8"/>
+      <c r="D279" s="11"/>
     </row>
     <row r="280">
-      <c r="D280" s="8"/>
+      <c r="D280" s="11"/>
     </row>
     <row r="281">
-      <c r="D281" s="8"/>
+      <c r="D281" s="11"/>
     </row>
     <row r="282">
-      <c r="D282" s="8"/>
+      <c r="D282" s="11"/>
     </row>
     <row r="283">
-      <c r="D283" s="8"/>
+      <c r="D283" s="11"/>
     </row>
     <row r="284">
-      <c r="D284" s="8"/>
+      <c r="D284" s="11"/>
     </row>
     <row r="285">
-      <c r="D285" s="8"/>
+      <c r="D285" s="11"/>
     </row>
     <row r="286">
-      <c r="D286" s="8"/>
+      <c r="D286" s="11"/>
     </row>
     <row r="287">
-      <c r="D287" s="8"/>
+      <c r="D287" s="11"/>
     </row>
     <row r="288">
-      <c r="D288" s="8"/>
+      <c r="D288" s="11"/>
     </row>
     <row r="289">
-      <c r="D289" s="8"/>
+      <c r="D289" s="11"/>
     </row>
     <row r="290">
-      <c r="D290" s="8"/>
+      <c r="D290" s="11"/>
     </row>
     <row r="291">
-      <c r="D291" s="8"/>
+      <c r="D291" s="11"/>
     </row>
     <row r="292">
-      <c r="D292" s="8"/>
+      <c r="D292" s="11"/>
     </row>
     <row r="293">
-      <c r="D293" s="8"/>
+      <c r="D293" s="11"/>
     </row>
     <row r="294">
-      <c r="D294" s="8"/>
+      <c r="D294" s="11"/>
     </row>
     <row r="295">
-      <c r="D295" s="8"/>
+      <c r="D295" s="11"/>
     </row>
     <row r="296">
-      <c r="D296" s="8"/>
+      <c r="D296" s="11"/>
     </row>
     <row r="297">
-      <c r="D297" s="8"/>
+      <c r="D297" s="11"/>
     </row>
     <row r="298">
-      <c r="D298" s="8"/>
+      <c r="D298" s="11"/>
     </row>
     <row r="299">
-      <c r="D299" s="8"/>
+      <c r="D299" s="11"/>
     </row>
     <row r="300">
-      <c r="D300" s="8"/>
+      <c r="D300" s="11"/>
     </row>
     <row r="301">
-      <c r="D301" s="8"/>
+      <c r="D301" s="11"/>
     </row>
     <row r="302">
-      <c r="D302" s="8"/>
+      <c r="D302" s="11"/>
     </row>
     <row r="303">
-      <c r="D303" s="8"/>
+      <c r="D303" s="11"/>
     </row>
     <row r="304">
-      <c r="D304" s="8"/>
+      <c r="D304" s="11"/>
     </row>
     <row r="305">
-      <c r="D305" s="8"/>
+      <c r="D305" s="11"/>
     </row>
     <row r="306">
-      <c r="D306" s="8"/>
+      <c r="D306" s="11"/>
     </row>
     <row r="307">
-      <c r="D307" s="8"/>
+      <c r="D307" s="11"/>
     </row>
     <row r="308">
-      <c r="D308" s="8"/>
+      <c r="D308" s="11"/>
     </row>
     <row r="309">
-      <c r="D309" s="8"/>
+      <c r="D309" s="11"/>
     </row>
     <row r="310">
-      <c r="D310" s="8"/>
+      <c r="D310" s="11"/>
     </row>
     <row r="311">
-      <c r="D311" s="8"/>
+      <c r="D311" s="11"/>
     </row>
     <row r="312">
-      <c r="D312" s="8"/>
+      <c r="D312" s="11"/>
     </row>
     <row r="313">
-      <c r="D313" s="8"/>
+      <c r="D313" s="11"/>
     </row>
     <row r="314">
-      <c r="D314" s="8"/>
+      <c r="D314" s="11"/>
     </row>
     <row r="315">
-      <c r="D315" s="8"/>
+      <c r="D315" s="11"/>
     </row>
     <row r="316">
-      <c r="D316" s="8"/>
+      <c r="D316" s="11"/>
     </row>
     <row r="317">
-      <c r="D317" s="8"/>
+      <c r="D317" s="11"/>
     </row>
     <row r="318">
-      <c r="D318" s="8"/>
+      <c r="D318" s="11"/>
     </row>
     <row r="319">
-      <c r="D319" s="8"/>
+      <c r="D319" s="11"/>
     </row>
     <row r="320">
-      <c r="D320" s="8"/>
+      <c r="D320" s="11"/>
     </row>
     <row r="321">
-      <c r="D321" s="8"/>
+      <c r="D321" s="11"/>
     </row>
     <row r="322">
-      <c r="D322" s="8"/>
+      <c r="D322" s="11"/>
     </row>
     <row r="323">
-      <c r="D323" s="8"/>
+      <c r="D323" s="11"/>
     </row>
     <row r="324">
-      <c r="D324" s="8"/>
+      <c r="D324" s="11"/>
     </row>
     <row r="325">
-      <c r="D325" s="8"/>
+      <c r="D325" s="11"/>
     </row>
     <row r="326">
-      <c r="D326" s="8"/>
+      <c r="D326" s="11"/>
     </row>
     <row r="327">
-      <c r="D327" s="8"/>
+      <c r="D327" s="11"/>
     </row>
     <row r="328">
-      <c r="D328" s="8"/>
+      <c r="D328" s="11"/>
     </row>
     <row r="329">
-      <c r="D329" s="8"/>
+      <c r="D329" s="11"/>
     </row>
     <row r="330">
-      <c r="D330" s="8"/>
+      <c r="D330" s="11"/>
     </row>
     <row r="331">
-      <c r="D331" s="8"/>
+      <c r="D331" s="11"/>
     </row>
     <row r="332">
-      <c r="D332" s="8"/>
+      <c r="D332" s="11"/>
     </row>
     <row r="333">
-      <c r="D333" s="8"/>
+      <c r="D333" s="11"/>
     </row>
     <row r="334">
-      <c r="D334" s="8"/>
+      <c r="D334" s="11"/>
     </row>
     <row r="335">
-      <c r="D335" s="8"/>
+      <c r="D335" s="11"/>
     </row>
     <row r="336">
-      <c r="D336" s="8"/>
+      <c r="D336" s="11"/>
     </row>
     <row r="337">
-      <c r="D337" s="8"/>
+      <c r="D337" s="11"/>
     </row>
     <row r="338">
-      <c r="D338" s="8"/>
+      <c r="D338" s="11"/>
     </row>
     <row r="339">
-      <c r="D339" s="8"/>
+      <c r="D339" s="11"/>
     </row>
     <row r="340">
-      <c r="D340" s="8"/>
+      <c r="D340" s="11"/>
     </row>
     <row r="341">
-      <c r="D341" s="8"/>
+      <c r="D341" s="11"/>
     </row>
     <row r="342">
-      <c r="D342" s="8"/>
+      <c r="D342" s="11"/>
     </row>
     <row r="343">
-      <c r="D343" s="8"/>
+      <c r="D343" s="11"/>
     </row>
     <row r="344">
-      <c r="D344" s="8"/>
+      <c r="D344" s="11"/>
     </row>
     <row r="345">
-      <c r="D345" s="8"/>
+      <c r="D345" s="11"/>
     </row>
     <row r="346">
-      <c r="D346" s="8"/>
+      <c r="D346" s="11"/>
     </row>
     <row r="347">
-      <c r="D347" s="8"/>
+      <c r="D347" s="11"/>
     </row>
     <row r="348">
-      <c r="D348" s="8"/>
+      <c r="D348" s="11"/>
     </row>
     <row r="349">
-      <c r="D349" s="8"/>
+      <c r="D349" s="11"/>
     </row>
     <row r="350">
-      <c r="D350" s="8"/>
+      <c r="D350" s="11"/>
     </row>
     <row r="351">
-      <c r="D351" s="8"/>
+      <c r="D351" s="11"/>
     </row>
     <row r="352">
-      <c r="D352" s="8"/>
+      <c r="D352" s="11"/>
     </row>
     <row r="353">
-      <c r="D353" s="8"/>
+      <c r="D353" s="11"/>
     </row>
     <row r="354">
-      <c r="D354" s="8"/>
+      <c r="D354" s="11"/>
     </row>
     <row r="355">
-      <c r="D355" s="8"/>
+      <c r="D355" s="11"/>
     </row>
     <row r="356">
-      <c r="D356" s="8"/>
+      <c r="D356" s="11"/>
     </row>
     <row r="357">
-      <c r="D357" s="8"/>
+      <c r="D357" s="11"/>
     </row>
     <row r="358">
-      <c r="D358" s="8"/>
+      <c r="D358" s="11"/>
     </row>
     <row r="359">
-      <c r="D359" s="8"/>
+      <c r="D359" s="11"/>
     </row>
     <row r="360">
-      <c r="D360" s="8"/>
+      <c r="D360" s="11"/>
     </row>
     <row r="361">
-      <c r="D361" s="8"/>
+      <c r="D361" s="11"/>
     </row>
     <row r="362">
-      <c r="D362" s="8"/>
+      <c r="D362" s="11"/>
     </row>
     <row r="363">
-      <c r="D363" s="8"/>
+      <c r="D363" s="11"/>
     </row>
     <row r="364">
-      <c r="D364" s="8"/>
+      <c r="D364" s="11"/>
     </row>
     <row r="365">
-      <c r="D365" s="8"/>
+      <c r="D365" s="11"/>
     </row>
     <row r="366">
-      <c r="D366" s="8"/>
+      <c r="D366" s="11"/>
     </row>
     <row r="367">
-      <c r="D367" s="8"/>
+      <c r="D367" s="11"/>
     </row>
     <row r="368">
-      <c r="D368" s="8"/>
+      <c r="D368" s="11"/>
     </row>
     <row r="369">
-      <c r="D369" s="8"/>
+      <c r="D369" s="11"/>
     </row>
     <row r="370">
-      <c r="D370" s="8"/>
+      <c r="D370" s="11"/>
     </row>
     <row r="371">
-      <c r="D371" s="8"/>
+      <c r="D371" s="11"/>
     </row>
     <row r="372">
-      <c r="D372" s="8"/>
+      <c r="D372" s="11"/>
     </row>
     <row r="373">
-      <c r="D373" s="8"/>
+      <c r="D373" s="11"/>
     </row>
     <row r="374">
-      <c r="D374" s="8"/>
+      <c r="D374" s="11"/>
     </row>
     <row r="375">
-      <c r="D375" s="8"/>
+      <c r="D375" s="11"/>
     </row>
     <row r="376">
-      <c r="D376" s="8"/>
+      <c r="D376" s="11"/>
     </row>
     <row r="377">
-      <c r="D377" s="8"/>
+      <c r="D377" s="11"/>
     </row>
     <row r="378">
-      <c r="D378" s="8"/>
+      <c r="D378" s="11"/>
     </row>
     <row r="379">
-      <c r="D379" s="8"/>
+      <c r="D379" s="11"/>
     </row>
     <row r="380">
-      <c r="D380" s="8"/>
+      <c r="D380" s="11"/>
     </row>
     <row r="381">
-      <c r="D381" s="8"/>
+      <c r="D381" s="11"/>
     </row>
     <row r="382">
-      <c r="D382" s="8"/>
+      <c r="D382" s="11"/>
     </row>
     <row r="383">
-      <c r="D383" s="8"/>
+      <c r="D383" s="11"/>
     </row>
     <row r="384">
-      <c r="D384" s="8"/>
+      <c r="D384" s="11"/>
     </row>
     <row r="385">
-      <c r="D385" s="8"/>
+      <c r="D385" s="11"/>
     </row>
     <row r="386">
-      <c r="D386" s="8"/>
+      <c r="D386" s="11"/>
     </row>
     <row r="387">
-      <c r="D387" s="8"/>
+      <c r="D387" s="11"/>
     </row>
     <row r="388">
-      <c r="D388" s="8"/>
+      <c r="D388" s="11"/>
     </row>
     <row r="389">
-      <c r="D389" s="8"/>
+      <c r="D389" s="11"/>
     </row>
     <row r="390">
-      <c r="D390" s="8"/>
+      <c r="D390" s="11"/>
     </row>
     <row r="391">
-      <c r="D391" s="8"/>
+      <c r="D391" s="11"/>
     </row>
     <row r="392">
-      <c r="D392" s="8"/>
+      <c r="D392" s="11"/>
     </row>
     <row r="393">
-      <c r="D393" s="8"/>
+      <c r="D393" s="11"/>
     </row>
     <row r="394">
-      <c r="D394" s="8"/>
+      <c r="D394" s="11"/>
     </row>
     <row r="395">
-      <c r="D395" s="8"/>
+      <c r="D395" s="11"/>
     </row>
     <row r="396">
-      <c r="D396" s="8"/>
+      <c r="D396" s="11"/>
     </row>
     <row r="397">
-      <c r="D397" s="8"/>
+      <c r="D397" s="11"/>
     </row>
     <row r="398">
-      <c r="D398" s="8"/>
+      <c r="D398" s="11"/>
     </row>
     <row r="399">
-      <c r="D399" s="8"/>
+      <c r="D399" s="11"/>
     </row>
     <row r="400">
-      <c r="D400" s="8"/>
+      <c r="D400" s="11"/>
     </row>
     <row r="401">
-      <c r="D401" s="8"/>
+      <c r="D401" s="11"/>
     </row>
     <row r="402">
-      <c r="D402" s="8"/>
+      <c r="D402" s="11"/>
     </row>
     <row r="403">
-      <c r="D403" s="8"/>
+      <c r="D403" s="11"/>
     </row>
     <row r="404">
-      <c r="D404" s="8"/>
+      <c r="D404" s="11"/>
     </row>
     <row r="405">
-      <c r="D405" s="8"/>
+      <c r="D405" s="11"/>
     </row>
     <row r="406">
-      <c r="D406" s="8"/>
+      <c r="D406" s="11"/>
     </row>
     <row r="407">
-      <c r="D407" s="8"/>
+      <c r="D407" s="11"/>
     </row>
     <row r="408">
-      <c r="D408" s="8"/>
+      <c r="D408" s="11"/>
     </row>
     <row r="409">
-      <c r="D409" s="8"/>
+      <c r="D409" s="11"/>
     </row>
     <row r="410">
-      <c r="D410" s="8"/>
+      <c r="D410" s="11"/>
     </row>
     <row r="411">
-      <c r="D411" s="8"/>
+      <c r="D411" s="11"/>
     </row>
     <row r="412">
-      <c r="D412" s="8"/>
+      <c r="D412" s="11"/>
     </row>
     <row r="413">
-      <c r="D413" s="8"/>
+      <c r="D413" s="11"/>
     </row>
     <row r="414">
-      <c r="D414" s="8"/>
+      <c r="D414" s="11"/>
     </row>
     <row r="415">
-      <c r="D415" s="8"/>
+      <c r="D415" s="11"/>
     </row>
     <row r="416">
-      <c r="D416" s="8"/>
+      <c r="D416" s="11"/>
     </row>
     <row r="417">
-      <c r="D417" s="8"/>
+      <c r="D417" s="11"/>
     </row>
     <row r="418">
-      <c r="D418" s="8"/>
+      <c r="D418" s="11"/>
     </row>
     <row r="419">
-      <c r="D419" s="8"/>
+      <c r="D419" s="11"/>
     </row>
     <row r="420">
-      <c r="D420" s="8"/>
+      <c r="D420" s="11"/>
     </row>
     <row r="421">
-      <c r="D421" s="8"/>
+      <c r="D421" s="11"/>
     </row>
     <row r="422">
-      <c r="D422" s="8"/>
+      <c r="D422" s="11"/>
     </row>
     <row r="423">
-      <c r="D423" s="8"/>
+      <c r="D423" s="11"/>
     </row>
     <row r="424">
-      <c r="D424" s="8"/>
+      <c r="D424" s="11"/>
     </row>
     <row r="425">
-      <c r="D425" s="8"/>
+      <c r="D425" s="11"/>
     </row>
     <row r="426">
-      <c r="D426" s="8"/>
+      <c r="D426" s="11"/>
     </row>
     <row r="427">
-      <c r="D427" s="8"/>
+      <c r="D427" s="11"/>
     </row>
     <row r="428">
-      <c r="D428" s="8"/>
+      <c r="D428" s="11"/>
     </row>
     <row r="429">
-      <c r="D429" s="8"/>
+      <c r="D429" s="11"/>
     </row>
     <row r="430">
-      <c r="D430" s="8"/>
+      <c r="D430" s="11"/>
     </row>
     <row r="431">
-      <c r="D431" s="8"/>
+      <c r="D431" s="11"/>
     </row>
     <row r="432">
-      <c r="D432" s="8"/>
+      <c r="D432" s="11"/>
     </row>
     <row r="433">
-      <c r="D433" s="8"/>
+      <c r="D433" s="11"/>
     </row>
     <row r="434">
-      <c r="D434" s="8"/>
+      <c r="D434" s="11"/>
     </row>
     <row r="435">
-      <c r="D435" s="8"/>
+      <c r="D435" s="11"/>
     </row>
     <row r="436">
-      <c r="D436" s="8"/>
+      <c r="D436" s="11"/>
     </row>
     <row r="437">
-      <c r="D437" s="8"/>
+      <c r="D437" s="11"/>
     </row>
     <row r="438">
-      <c r="D438" s="8"/>
+      <c r="D438" s="11"/>
     </row>
     <row r="439">
-      <c r="D439" s="8"/>
+      <c r="D439" s="11"/>
     </row>
     <row r="440">
-      <c r="D440" s="8"/>
+      <c r="D440" s="11"/>
     </row>
     <row r="441">
-      <c r="D441" s="8"/>
+      <c r="D441" s="11"/>
     </row>
     <row r="442">
-      <c r="D442" s="8"/>
+      <c r="D442" s="11"/>
     </row>
     <row r="443">
-      <c r="D443" s="8"/>
+      <c r="D443" s="11"/>
     </row>
     <row r="444">
-      <c r="D444" s="8"/>
+      <c r="D444" s="11"/>
     </row>
     <row r="445">
-      <c r="D445" s="8"/>
+      <c r="D445" s="11"/>
     </row>
     <row r="446">
-      <c r="D446" s="8"/>
+      <c r="D446" s="11"/>
     </row>
     <row r="447">
-      <c r="D447" s="8"/>
+      <c r="D447" s="11"/>
     </row>
     <row r="448">
-      <c r="D448" s="8"/>
+      <c r="D448" s="11"/>
     </row>
     <row r="449">
-      <c r="D449" s="8"/>
+      <c r="D449" s="11"/>
     </row>
     <row r="450">
-      <c r="D450" s="8"/>
+      <c r="D450" s="11"/>
     </row>
     <row r="451">
-      <c r="D451" s="8"/>
+      <c r="D451" s="11"/>
     </row>
     <row r="452">
-      <c r="D452" s="8"/>
+      <c r="D452" s="11"/>
     </row>
     <row r="453">
-      <c r="D453" s="8"/>
+      <c r="D453" s="11"/>
     </row>
     <row r="454">
-      <c r="D454" s="8"/>
+      <c r="D454" s="11"/>
     </row>
     <row r="455">
-      <c r="D455" s="8"/>
+      <c r="D455" s="11"/>
     </row>
     <row r="456">
-      <c r="D456" s="8"/>
+      <c r="D456" s="11"/>
     </row>
     <row r="457">
-      <c r="D457" s="8"/>
+      <c r="D457" s="11"/>
     </row>
     <row r="458">
-      <c r="D458" s="8"/>
+      <c r="D458" s="11"/>
     </row>
     <row r="459">
-      <c r="D459" s="8"/>
+      <c r="D459" s="11"/>
     </row>
     <row r="460">
-      <c r="D460" s="8"/>
+      <c r="D460" s="11"/>
     </row>
     <row r="461">
-      <c r="D461" s="8"/>
+      <c r="D461" s="11"/>
     </row>
     <row r="462">
-      <c r="D462" s="8"/>
+      <c r="D462" s="11"/>
     </row>
     <row r="463">
-      <c r="D463" s="8"/>
+      <c r="D463" s="11"/>
     </row>
     <row r="464">
-      <c r="D464" s="8"/>
+      <c r="D464" s="11"/>
     </row>
     <row r="465">
-      <c r="D465" s="8"/>
+      <c r="D465" s="11"/>
     </row>
     <row r="466">
-      <c r="D466" s="8"/>
+      <c r="D466" s="11"/>
     </row>
     <row r="467">
-      <c r="D467" s="8"/>
+      <c r="D467" s="11"/>
     </row>
     <row r="468">
-      <c r="D468" s="8"/>
+      <c r="D468" s="11"/>
     </row>
     <row r="469">
-      <c r="D469" s="8"/>
+      <c r="D469" s="11"/>
     </row>
     <row r="470">
-      <c r="D470" s="8"/>
+      <c r="D470" s="11"/>
     </row>
     <row r="471">
-      <c r="D471" s="8"/>
+      <c r="D471" s="11"/>
     </row>
     <row r="472">
-      <c r="D472" s="8"/>
+      <c r="D472" s="11"/>
     </row>
     <row r="473">
-      <c r="D473" s="8"/>
+      <c r="D473" s="11"/>
     </row>
     <row r="474">
-      <c r="D474" s="8"/>
+      <c r="D474" s="11"/>
     </row>
     <row r="475">
-      <c r="D475" s="8"/>
+      <c r="D475" s="11"/>
     </row>
     <row r="476">
-      <c r="D476" s="8"/>
+      <c r="D476" s="11"/>
     </row>
     <row r="477">
-      <c r="D477" s="8"/>
+      <c r="D477" s="11"/>
     </row>
     <row r="478">
-      <c r="D478" s="8"/>
+      <c r="D478" s="11"/>
     </row>
     <row r="479">
-      <c r="D479" s="8"/>
+      <c r="D479" s="11"/>
     </row>
     <row r="480">
-      <c r="D480" s="8"/>
+      <c r="D480" s="11"/>
     </row>
     <row r="481">
-      <c r="D481" s="8"/>
+      <c r="D481" s="11"/>
     </row>
     <row r="482">
-      <c r="D482" s="8"/>
+      <c r="D482" s="11"/>
     </row>
     <row r="483">
-      <c r="D483" s="8"/>
+      <c r="D483" s="11"/>
     </row>
     <row r="484">
-      <c r="D484" s="8"/>
+      <c r="D484" s="11"/>
     </row>
     <row r="485">
-      <c r="D485" s="8"/>
+      <c r="D485" s="11"/>
     </row>
     <row r="486">
-      <c r="D486" s="8"/>
+      <c r="D486" s="11"/>
     </row>
     <row r="487">
-      <c r="D487" s="8"/>
+      <c r="D487" s="11"/>
     </row>
     <row r="488">
-      <c r="D488" s="8"/>
+      <c r="D488" s="11"/>
     </row>
     <row r="489">
-      <c r="D489" s="8"/>
+      <c r="D489" s="11"/>
     </row>
     <row r="490">
-      <c r="D490" s="8"/>
+      <c r="D490" s="11"/>
     </row>
     <row r="491">
-      <c r="D491" s="8"/>
+      <c r="D491" s="11"/>
     </row>
     <row r="492">
-      <c r="D492" s="8"/>
+      <c r="D492" s="11"/>
     </row>
     <row r="493">
-      <c r="D493" s="8"/>
+      <c r="D493" s="11"/>
     </row>
     <row r="494">
-      <c r="D494" s="8"/>
+      <c r="D494" s="11"/>
     </row>
     <row r="495">
-      <c r="D495" s="8"/>
+      <c r="D495" s="11"/>
     </row>
     <row r="496">
-      <c r="D496" s="8"/>
+      <c r="D496" s="11"/>
     </row>
     <row r="497">
-      <c r="D497" s="8"/>
+      <c r="D497" s="11"/>
     </row>
     <row r="498">
-      <c r="D498" s="8"/>
+      <c r="D498" s="11"/>
     </row>
     <row r="499">
-      <c r="D499" s="8"/>
+      <c r="D499" s="11"/>
     </row>
     <row r="500">
-      <c r="D500" s="8"/>
+      <c r="D500" s="11"/>
     </row>
     <row r="501">
-      <c r="D501" s="8"/>
+      <c r="D501" s="11"/>
     </row>
     <row r="502">
-      <c r="D502" s="8"/>
+      <c r="D502" s="11"/>
     </row>
     <row r="503">
-      <c r="D503" s="8"/>
+      <c r="D503" s="11"/>
     </row>
     <row r="504">
-      <c r="D504" s="8"/>
+      <c r="D504" s="11"/>
     </row>
     <row r="505">
-      <c r="D505" s="8"/>
+      <c r="D505" s="11"/>
     </row>
     <row r="506">
-      <c r="D506" s="8"/>
+      <c r="D506" s="11"/>
     </row>
     <row r="507">
-      <c r="D507" s="8"/>
+      <c r="D507" s="11"/>
     </row>
     <row r="508">
-      <c r="D508" s="8"/>
+      <c r="D508" s="11"/>
     </row>
     <row r="509">
-      <c r="D509" s="8"/>
+      <c r="D509" s="11"/>
     </row>
     <row r="510">
-      <c r="D510" s="8"/>
+      <c r="D510" s="11"/>
     </row>
     <row r="511">
-      <c r="D511" s="8"/>
+      <c r="D511" s="11"/>
     </row>
     <row r="512">
-      <c r="D512" s="8"/>
+      <c r="D512" s="11"/>
     </row>
     <row r="513">
-      <c r="D513" s="8"/>
+      <c r="D513" s="11"/>
     </row>
     <row r="514">
-      <c r="D514" s="8"/>
+      <c r="D514" s="11"/>
     </row>
     <row r="515">
-      <c r="D515" s="8"/>
+      <c r="D515" s="11"/>
     </row>
     <row r="516">
-      <c r="D516" s="8"/>
+      <c r="D516" s="11"/>
     </row>
     <row r="517">
-      <c r="D517" s="8"/>
+      <c r="D517" s="11"/>
     </row>
     <row r="518">
-      <c r="D518" s="8"/>
+      <c r="D518" s="11"/>
     </row>
     <row r="519">
-      <c r="D519" s="8"/>
+      <c r="D519" s="11"/>
     </row>
     <row r="520">
-      <c r="D520" s="8"/>
+      <c r="D520" s="11"/>
     </row>
     <row r="521">
-      <c r="D521" s="8"/>
+      <c r="D521" s="11"/>
     </row>
     <row r="522">
-      <c r="D522" s="8"/>
+      <c r="D522" s="11"/>
     </row>
     <row r="523">
-      <c r="D523" s="8"/>
+      <c r="D523" s="11"/>
     </row>
     <row r="524">
-      <c r="D524" s="8"/>
+      <c r="D524" s="11"/>
     </row>
     <row r="525">
-      <c r="D525" s="8"/>
+      <c r="D525" s="11"/>
     </row>
     <row r="526">
-      <c r="D526" s="8"/>
+      <c r="D526" s="11"/>
     </row>
     <row r="527">
-      <c r="D527" s="8"/>
+      <c r="D527" s="11"/>
     </row>
     <row r="528">
-      <c r="D528" s="8"/>
+      <c r="D528" s="11"/>
     </row>
     <row r="529">
-      <c r="D529" s="8"/>
+      <c r="D529" s="11"/>
     </row>
     <row r="530">
-      <c r="D530" s="8"/>
+      <c r="D530" s="11"/>
     </row>
     <row r="531">
-      <c r="D531" s="8"/>
+      <c r="D531" s="11"/>
     </row>
     <row r="532">
-      <c r="D532" s="8"/>
+      <c r="D532" s="11"/>
     </row>
     <row r="533">
-      <c r="D533" s="8"/>
+      <c r="D533" s="11"/>
     </row>
     <row r="534">
-      <c r="D534" s="8"/>
+      <c r="D534" s="11"/>
     </row>
     <row r="535">
-      <c r="D535" s="8"/>
+      <c r="D535" s="11"/>
     </row>
     <row r="536">
-      <c r="D536" s="8"/>
+      <c r="D536" s="11"/>
     </row>
     <row r="537">
-      <c r="D537" s="8"/>
+      <c r="D537" s="11"/>
     </row>
     <row r="538">
-      <c r="D538" s="8"/>
+      <c r="D538" s="11"/>
     </row>
     <row r="539">
-      <c r="D539" s="8"/>
+      <c r="D539" s="11"/>
     </row>
     <row r="540">
-      <c r="D540" s="8"/>
+      <c r="D540" s="11"/>
     </row>
     <row r="541">
-      <c r="D541" s="8"/>
+      <c r="D541" s="11"/>
     </row>
     <row r="542">
-      <c r="D542" s="8"/>
+      <c r="D542" s="11"/>
     </row>
     <row r="543">
-      <c r="D543" s="8"/>
+      <c r="D543" s="11"/>
     </row>
     <row r="544">
-      <c r="D544" s="8"/>
+      <c r="D544" s="11"/>
     </row>
     <row r="545">
-      <c r="D545" s="8"/>
+      <c r="D545" s="11"/>
     </row>
     <row r="546">
-      <c r="D546" s="8"/>
+      <c r="D546" s="11"/>
     </row>
     <row r="547">
-      <c r="D547" s="8"/>
+      <c r="D547" s="11"/>
     </row>
     <row r="548">
-      <c r="D548" s="8"/>
+      <c r="D548" s="11"/>
     </row>
     <row r="549">
-      <c r="D549" s="8"/>
+      <c r="D549" s="11"/>
     </row>
     <row r="550">
-      <c r="D550" s="8"/>
+      <c r="D550" s="11"/>
     </row>
     <row r="551">
-      <c r="D551" s="8"/>
+      <c r="D551" s="11"/>
     </row>
     <row r="552">
-      <c r="D552" s="8"/>
+      <c r="D552" s="11"/>
     </row>
     <row r="553">
-      <c r="D553" s="8"/>
+      <c r="D553" s="11"/>
     </row>
     <row r="554">
-      <c r="D554" s="8"/>
+      <c r="D554" s="11"/>
     </row>
     <row r="555">
-      <c r="D555" s="8"/>
+      <c r="D555" s="11"/>
     </row>
     <row r="556">
-      <c r="D556" s="8"/>
+      <c r="D556" s="11"/>
     </row>
     <row r="557">
-      <c r="D557" s="8"/>
+      <c r="D557" s="11"/>
     </row>
     <row r="558">
-      <c r="D558" s="8"/>
+      <c r="D558" s="11"/>
     </row>
     <row r="559">
-      <c r="D559" s="8"/>
+      <c r="D559" s="11"/>
     </row>
     <row r="560">
-      <c r="D560" s="8"/>
+      <c r="D560" s="11"/>
     </row>
     <row r="561">
-      <c r="D561" s="8"/>
+      <c r="D561" s="11"/>
     </row>
     <row r="562">
-      <c r="D562" s="8"/>
+      <c r="D562" s="11"/>
     </row>
     <row r="563">
-      <c r="D563" s="8"/>
+      <c r="D563" s="11"/>
     </row>
     <row r="564">
-      <c r="D564" s="8"/>
+      <c r="D564" s="11"/>
     </row>
     <row r="565">
-      <c r="D565" s="8"/>
+      <c r="D565" s="11"/>
     </row>
     <row r="566">
-      <c r="D566" s="8"/>
+      <c r="D566" s="11"/>
     </row>
     <row r="567">
-      <c r="D567" s="8"/>
+      <c r="D567" s="11"/>
     </row>
     <row r="568">
-      <c r="D568" s="8"/>
+      <c r="D568" s="11"/>
     </row>
     <row r="569">
-      <c r="D569" s="8"/>
+      <c r="D569" s="11"/>
     </row>
     <row r="570">
-      <c r="D570" s="8"/>
+      <c r="D570" s="11"/>
     </row>
     <row r="571">
-      <c r="D571" s="8"/>
+      <c r="D571" s="11"/>
     </row>
     <row r="572">
-      <c r="D572" s="8"/>
+      <c r="D572" s="11"/>
     </row>
     <row r="573">
-      <c r="D573" s="8"/>
+      <c r="D573" s="11"/>
     </row>
     <row r="574">
-      <c r="D574" s="8"/>
+      <c r="D574" s="11"/>
     </row>
     <row r="575">
-      <c r="D575" s="8"/>
+      <c r="D575" s="11"/>
     </row>
     <row r="576">
-      <c r="D576" s="8"/>
+      <c r="D576" s="11"/>
     </row>
     <row r="577">
-      <c r="D577" s="8"/>
+      <c r="D577" s="11"/>
     </row>
     <row r="578">
-      <c r="D578" s="8"/>
+      <c r="D578" s="11"/>
     </row>
     <row r="579">
-      <c r="D579" s="8"/>
+      <c r="D579" s="11"/>
     </row>
     <row r="580">
-      <c r="D580" s="8"/>
+      <c r="D580" s="11"/>
     </row>
     <row r="581">
-      <c r="D581" s="8"/>
+      <c r="D581" s="11"/>
     </row>
     <row r="582">
-      <c r="D582" s="8"/>
+      <c r="D582" s="11"/>
     </row>
     <row r="583">
-      <c r="D583" s="8"/>
+      <c r="D583" s="11"/>
     </row>
     <row r="584">
-      <c r="D584" s="8"/>
+      <c r="D584" s="11"/>
     </row>
     <row r="585">
-      <c r="D585" s="8"/>
+      <c r="D585" s="11"/>
     </row>
     <row r="586">
-      <c r="D586" s="8"/>
+      <c r="D586" s="11"/>
     </row>
     <row r="587">
-      <c r="D587" s="8"/>
+      <c r="D587" s="11"/>
     </row>
     <row r="588">
-      <c r="D588" s="8"/>
+      <c r="D588" s="11"/>
     </row>
     <row r="589">
-      <c r="D589" s="8"/>
+      <c r="D589" s="11"/>
     </row>
     <row r="590">
-      <c r="D590" s="8"/>
+      <c r="D590" s="11"/>
     </row>
     <row r="591">
-      <c r="D591" s="8"/>
+      <c r="D591" s="11"/>
     </row>
     <row r="592">
-      <c r="D592" s="8"/>
+      <c r="D592" s="11"/>
     </row>
     <row r="593">
-      <c r="D593" s="8"/>
+      <c r="D593" s="11"/>
     </row>
     <row r="594">
-      <c r="D594" s="8"/>
+      <c r="D594" s="11"/>
     </row>
     <row r="595">
-      <c r="D595" s="8"/>
+      <c r="D595" s="11"/>
     </row>
     <row r="596">
-      <c r="D596" s="8"/>
+      <c r="D596" s="11"/>
     </row>
     <row r="597">
-      <c r="D597" s="8"/>
+      <c r="D597" s="11"/>
     </row>
     <row r="598">
-      <c r="D598" s="8"/>
+      <c r="D598" s="11"/>
     </row>
     <row r="599">
-      <c r="D599" s="8"/>
+      <c r="D599" s="11"/>
     </row>
     <row r="600">
-      <c r="D600" s="8"/>
+      <c r="D600" s="11"/>
     </row>
     <row r="601">
-      <c r="D601" s="8"/>
+      <c r="D601" s="11"/>
     </row>
     <row r="602">
-      <c r="D602" s="8"/>
+      <c r="D602" s="11"/>
     </row>
     <row r="603">
-      <c r="D603" s="8"/>
+      <c r="D603" s="11"/>
     </row>
     <row r="604">
-      <c r="D604" s="8"/>
+      <c r="D604" s="11"/>
     </row>
     <row r="605">
-      <c r="D605" s="8"/>
+      <c r="D605" s="11"/>
     </row>
     <row r="606">
-      <c r="D606" s="8"/>
+      <c r="D606" s="11"/>
     </row>
     <row r="607">
-      <c r="D607" s="8"/>
+      <c r="D607" s="11"/>
     </row>
     <row r="608">
-      <c r="D608" s="8"/>
+      <c r="D608" s="11"/>
     </row>
     <row r="609">
-      <c r="D609" s="8"/>
+      <c r="D609" s="11"/>
     </row>
     <row r="610">
-      <c r="D610" s="8"/>
+      <c r="D610" s="11"/>
     </row>
     <row r="611">
-      <c r="D611" s="8"/>
+      <c r="D611" s="11"/>
     </row>
     <row r="612">
-      <c r="D612" s="8"/>
+      <c r="D612" s="11"/>
     </row>
     <row r="613">
-      <c r="D613" s="8"/>
+      <c r="D613" s="11"/>
     </row>
     <row r="614">
-      <c r="D614" s="8"/>
+      <c r="D614" s="11"/>
     </row>
     <row r="615">
-      <c r="D615" s="8"/>
+      <c r="D615" s="11"/>
     </row>
     <row r="616">
-      <c r="D616" s="8"/>
+      <c r="D616" s="11"/>
     </row>
     <row r="617">
-      <c r="D617" s="8"/>
+      <c r="D617" s="11"/>
     </row>
     <row r="618">
-      <c r="D618" s="8"/>
+      <c r="D618" s="11"/>
     </row>
     <row r="619">
-      <c r="D619" s="8"/>
+      <c r="D619" s="11"/>
     </row>
     <row r="620">
-      <c r="D620" s="8"/>
+      <c r="D620" s="11"/>
     </row>
     <row r="621">
-      <c r="D621" s="8"/>
+      <c r="D621" s="11"/>
     </row>
     <row r="622">
-      <c r="D622" s="8"/>
+      <c r="D622" s="11"/>
     </row>
     <row r="623">
-      <c r="D623" s="8"/>
+      <c r="D623" s="11"/>
     </row>
     <row r="624">
-      <c r="D624" s="8"/>
+      <c r="D624" s="11"/>
     </row>
     <row r="625">
-      <c r="D625" s="8"/>
+      <c r="D625" s="11"/>
     </row>
     <row r="626">
-      <c r="D626" s="8"/>
+      <c r="D626" s="11"/>
     </row>
     <row r="627">
-      <c r="D627" s="8"/>
+      <c r="D627" s="11"/>
     </row>
     <row r="628">
-      <c r="D628" s="8"/>
+      <c r="D628" s="11"/>
     </row>
     <row r="629">
-      <c r="D629" s="8"/>
+      <c r="D629" s="11"/>
     </row>
     <row r="630">
-      <c r="D630" s="8"/>
+      <c r="D630" s="11"/>
     </row>
     <row r="631">
-      <c r="D631" s="8"/>
+      <c r="D631" s="11"/>
     </row>
     <row r="632">
-      <c r="D632" s="8"/>
+      <c r="D632" s="11"/>
     </row>
     <row r="633">
-      <c r="D633" s="8"/>
+      <c r="D633" s="11"/>
     </row>
     <row r="634">
-      <c r="D634" s="8"/>
+      <c r="D634" s="11"/>
     </row>
     <row r="635">
-      <c r="D635" s="8"/>
+      <c r="D635" s="11"/>
     </row>
     <row r="636">
-      <c r="D636" s="8"/>
+      <c r="D636" s="11"/>
     </row>
     <row r="637">
-      <c r="D637" s="8"/>
+      <c r="D637" s="11"/>
     </row>
     <row r="638">
-      <c r="D638" s="8"/>
+      <c r="D638" s="11"/>
     </row>
     <row r="639">
-      <c r="D639" s="8"/>
+      <c r="D639" s="11"/>
     </row>
     <row r="640">
-      <c r="D640" s="8"/>
+      <c r="D640" s="11"/>
     </row>
     <row r="641">
-      <c r="D641" s="8"/>
+      <c r="D641" s="11"/>
     </row>
     <row r="642">
-      <c r="D642" s="8"/>
+      <c r="D642" s="11"/>
     </row>
     <row r="643">
-      <c r="D643" s="8"/>
+      <c r="D643" s="11"/>
     </row>
     <row r="644">
-      <c r="D644" s="8"/>
+      <c r="D644" s="11"/>
     </row>
     <row r="645">
-      <c r="D645" s="8"/>
+      <c r="D645" s="11"/>
     </row>
     <row r="646">
-      <c r="D646" s="8"/>
+      <c r="D646" s="11"/>
     </row>
     <row r="647">
-      <c r="D647" s="8"/>
+      <c r="D647" s="11"/>
     </row>
     <row r="648">
-      <c r="D648" s="8"/>
+      <c r="D648" s="11"/>
     </row>
     <row r="649">
-      <c r="D649" s="8"/>
+      <c r="D649" s="11"/>
     </row>
     <row r="650">
-      <c r="D650" s="8"/>
+      <c r="D650" s="11"/>
     </row>
     <row r="651">
-      <c r="D651" s="8"/>
+      <c r="D651" s="11"/>
     </row>
     <row r="652">
-      <c r="D652" s="8"/>
+      <c r="D652" s="11"/>
     </row>
     <row r="653">
-      <c r="D653" s="8"/>
+      <c r="D653" s="11"/>
     </row>
     <row r="654">
-      <c r="D654" s="8"/>
+      <c r="D654" s="11"/>
     </row>
     <row r="655">
-      <c r="D655" s="8"/>
+      <c r="D655" s="11"/>
     </row>
     <row r="656">
-      <c r="D656" s="8"/>
+      <c r="D656" s="11"/>
     </row>
     <row r="657">
-      <c r="D657" s="8"/>
+      <c r="D657" s="11"/>
     </row>
     <row r="658">
-      <c r="D658" s="8"/>
+      <c r="D658" s="11"/>
     </row>
     <row r="659">
-      <c r="D659" s="8"/>
+      <c r="D659" s="11"/>
     </row>
     <row r="660">
-      <c r="D660" s="8"/>
+      <c r="D660" s="11"/>
     </row>
     <row r="661">
-      <c r="D661" s="8"/>
+      <c r="D661" s="11"/>
     </row>
     <row r="662">
-      <c r="D662" s="8"/>
+      <c r="D662" s="11"/>
     </row>
     <row r="663">
-      <c r="D663" s="8"/>
+      <c r="D663" s="11"/>
     </row>
     <row r="664">
-      <c r="D664" s="8"/>
+      <c r="D664" s="11"/>
     </row>
     <row r="665">
-      <c r="D665" s="8"/>
+      <c r="D665" s="11"/>
     </row>
     <row r="666">
-      <c r="D666" s="8"/>
+      <c r="D666" s="11"/>
     </row>
     <row r="667">
-      <c r="D667" s="8"/>
+      <c r="D667" s="11"/>
     </row>
     <row r="668">
-      <c r="D668" s="8"/>
+      <c r="D668" s="11"/>
     </row>
     <row r="669">
-      <c r="D669" s="8"/>
+      <c r="D669" s="11"/>
     </row>
     <row r="670">
-      <c r="D670" s="8"/>
+      <c r="D670" s="11"/>
     </row>
     <row r="671">
-      <c r="D671" s="8"/>
+      <c r="D671" s="11"/>
     </row>
     <row r="672">
-      <c r="D672" s="8"/>
+      <c r="D672" s="11"/>
     </row>
     <row r="673">
-      <c r="D673" s="8"/>
+      <c r="D673" s="11"/>
     </row>
     <row r="674">
-      <c r="D674" s="8"/>
+      <c r="D674" s="11"/>
     </row>
     <row r="675">
-      <c r="D675" s="8"/>
+      <c r="D675" s="11"/>
     </row>
     <row r="676">
-      <c r="D676" s="8"/>
+      <c r="D676" s="11"/>
     </row>
     <row r="677">
-      <c r="D677" s="8"/>
+      <c r="D677" s="11"/>
     </row>
     <row r="678">
-      <c r="D678" s="8"/>
+      <c r="D678" s="11"/>
     </row>
     <row r="679">
-      <c r="D679" s="8"/>
+      <c r="D679" s="11"/>
     </row>
     <row r="680">
-      <c r="D680" s="8"/>
+      <c r="D680" s="11"/>
     </row>
     <row r="681">
-      <c r="D681" s="8"/>
+      <c r="D681" s="11"/>
     </row>
     <row r="682">
-      <c r="D682" s="8"/>
+      <c r="D682" s="11"/>
     </row>
     <row r="683">
-      <c r="D683" s="8"/>
+      <c r="D683" s="11"/>
     </row>
     <row r="684">
-      <c r="D684" s="8"/>
+      <c r="D684" s="11"/>
     </row>
     <row r="685">
-      <c r="D685" s="8"/>
+      <c r="D685" s="11"/>
     </row>
     <row r="686">
-      <c r="D686" s="8"/>
+      <c r="D686" s="11"/>
     </row>
     <row r="687">
-      <c r="D687" s="8"/>
+      <c r="D687" s="11"/>
     </row>
     <row r="688">
-      <c r="D688" s="8"/>
+      <c r="D688" s="11"/>
     </row>
     <row r="689">
-      <c r="D689" s="8"/>
+      <c r="D689" s="11"/>
     </row>
     <row r="690">
-      <c r="D690" s="8"/>
+      <c r="D690" s="11"/>
     </row>
     <row r="691">
-      <c r="D691" s="8"/>
+      <c r="D691" s="11"/>
     </row>
     <row r="692">
-      <c r="D692" s="8"/>
+      <c r="D692" s="11"/>
     </row>
     <row r="693">
-      <c r="D693" s="8"/>
+      <c r="D693" s="11"/>
     </row>
     <row r="694">
-      <c r="D694" s="8"/>
+      <c r="D694" s="11"/>
     </row>
     <row r="695">
-      <c r="D695" s="8"/>
+      <c r="D695" s="11"/>
     </row>
     <row r="696">
-      <c r="D696" s="8"/>
+      <c r="D696" s="11"/>
     </row>
     <row r="697">
-      <c r="D697" s="8"/>
+      <c r="D697" s="11"/>
     </row>
     <row r="698">
-      <c r="D698" s="8"/>
+      <c r="D698" s="11"/>
     </row>
     <row r="699">
-      <c r="D699" s="8"/>
+      <c r="D699" s="11"/>
     </row>
     <row r="700">
-      <c r="D700" s="8"/>
+      <c r="D700" s="11"/>
     </row>
     <row r="701">
-      <c r="D701" s="8"/>
+      <c r="D701" s="11"/>
     </row>
     <row r="702">
-      <c r="D702" s="8"/>
+      <c r="D702" s="11"/>
     </row>
     <row r="703">
-      <c r="D703" s="8"/>
+      <c r="D703" s="11"/>
     </row>
     <row r="704">
-      <c r="D704" s="8"/>
+      <c r="D704" s="11"/>
     </row>
     <row r="705">
-      <c r="D705" s="8"/>
+      <c r="D705" s="11"/>
     </row>
     <row r="706">
-      <c r="D706" s="8"/>
+      <c r="D706" s="11"/>
     </row>
     <row r="707">
-      <c r="D707" s="8"/>
+      <c r="D707" s="11"/>
     </row>
     <row r="708">
-      <c r="D708" s="8"/>
+      <c r="D708" s="11"/>
     </row>
     <row r="709">
-      <c r="D709" s="8"/>
+      <c r="D709" s="11"/>
     </row>
     <row r="710">
-      <c r="D710" s="8"/>
+      <c r="D710" s="11"/>
     </row>
     <row r="711">
-      <c r="D711" s="8"/>
+      <c r="D711" s="11"/>
     </row>
     <row r="712">
-      <c r="D712" s="8"/>
+      <c r="D712" s="11"/>
     </row>
     <row r="713">
-      <c r="D713" s="8"/>
+      <c r="D713" s="11"/>
     </row>
     <row r="714">
-      <c r="D714" s="8"/>
+      <c r="D714" s="11"/>
     </row>
     <row r="715">
-      <c r="D715" s="8"/>
+      <c r="D715" s="11"/>
     </row>
     <row r="716">
-      <c r="D716" s="8"/>
+      <c r="D716" s="11"/>
     </row>
     <row r="717">
-      <c r="D717" s="8"/>
+      <c r="D717" s="11"/>
     </row>
     <row r="718">
-      <c r="D718" s="8"/>
+      <c r="D718" s="11"/>
     </row>
     <row r="719">
-      <c r="D719" s="8"/>
+      <c r="D719" s="11"/>
     </row>
     <row r="720">
-      <c r="D720" s="8"/>
+      <c r="D720" s="11"/>
     </row>
     <row r="721">
-      <c r="D721" s="8"/>
+      <c r="D721" s="11"/>
     </row>
     <row r="722">
-      <c r="D722" s="8"/>
+      <c r="D722" s="11"/>
     </row>
     <row r="723">
-      <c r="D723" s="8"/>
+      <c r="D723" s="11"/>
     </row>
     <row r="724">
-      <c r="D724" s="8"/>
+      <c r="D724" s="11"/>
     </row>
     <row r="725">
-      <c r="D725" s="8"/>
+      <c r="D725" s="11"/>
     </row>
     <row r="726">
-      <c r="D726" s="8"/>
+      <c r="D726" s="11"/>
     </row>
     <row r="727">
-      <c r="D727" s="8"/>
+      <c r="D727" s="11"/>
     </row>
     <row r="728">
-      <c r="D728" s="8"/>
+      <c r="D728" s="11"/>
     </row>
     <row r="729">
-      <c r="D729" s="8"/>
+      <c r="D729" s="11"/>
     </row>
     <row r="730">
-      <c r="D730" s="8"/>
+      <c r="D730" s="11"/>
     </row>
     <row r="731">
-      <c r="D731" s="8"/>
+      <c r="D731" s="11"/>
     </row>
     <row r="732">
-      <c r="D732" s="8"/>
+      <c r="D732" s="11"/>
     </row>
     <row r="733">
-      <c r="D733" s="8"/>
+      <c r="D733" s="11"/>
     </row>
     <row r="734">
-      <c r="D734" s="8"/>
+      <c r="D734" s="11"/>
     </row>
     <row r="735">
-      <c r="D735" s="8"/>
+      <c r="D735" s="11"/>
     </row>
     <row r="736">
-      <c r="D736" s="8"/>
+      <c r="D736" s="11"/>
     </row>
     <row r="737">
-      <c r="D737" s="8"/>
+      <c r="D737" s="11"/>
     </row>
     <row r="738">
-      <c r="D738" s="8"/>
+      <c r="D738" s="11"/>
     </row>
     <row r="739">
-      <c r="D739" s="8"/>
+      <c r="D739" s="11"/>
     </row>
     <row r="740">
-      <c r="D740" s="8"/>
+      <c r="D740" s="11"/>
     </row>
     <row r="741">
-      <c r="D741" s="8"/>
+      <c r="D741" s="11"/>
     </row>
     <row r="742">
-      <c r="D742" s="8"/>
+      <c r="D742" s="11"/>
     </row>
     <row r="743">
-      <c r="D743" s="8"/>
+      <c r="D743" s="11"/>
     </row>
     <row r="744">
-      <c r="D744" s="8"/>
+      <c r="D744" s="11"/>
     </row>
     <row r="745">
-      <c r="D745" s="8"/>
+      <c r="D745" s="11"/>
     </row>
     <row r="746">
-      <c r="D746" s="8"/>
+      <c r="D746" s="11"/>
     </row>
     <row r="747">
-      <c r="D747" s="8"/>
+      <c r="D747" s="11"/>
     </row>
     <row r="748">
-      <c r="D748" s="8"/>
+      <c r="D748" s="11"/>
     </row>
     <row r="749">
-      <c r="D749" s="8"/>
+      <c r="D749" s="11"/>
     </row>
     <row r="750">
-      <c r="D750" s="8"/>
+      <c r="D750" s="11"/>
     </row>
     <row r="751">
-      <c r="D751" s="8"/>
+      <c r="D751" s="11"/>
     </row>
     <row r="752">
-      <c r="D752" s="8"/>
+      <c r="D752" s="11"/>
     </row>
     <row r="753">
-      <c r="D753" s="8"/>
+      <c r="D753" s="11"/>
     </row>
     <row r="754">
-      <c r="D754" s="8"/>
+      <c r="D754" s="11"/>
     </row>
     <row r="755">
-      <c r="D755" s="8"/>
+      <c r="D755" s="11"/>
     </row>
     <row r="756">
-      <c r="D756" s="8"/>
+      <c r="D756" s="11"/>
     </row>
     <row r="757">
-      <c r="D757" s="8"/>
+      <c r="D757" s="11"/>
     </row>
     <row r="758">
-      <c r="D758" s="8"/>
+      <c r="D758" s="11"/>
     </row>
     <row r="759">
-      <c r="D759" s="8"/>
+      <c r="D759" s="11"/>
     </row>
     <row r="760">
-      <c r="D760" s="8"/>
+      <c r="D760" s="11"/>
     </row>
     <row r="761">
-      <c r="D761" s="8"/>
+      <c r="D761" s="11"/>
     </row>
     <row r="762">
-      <c r="D762" s="8"/>
+      <c r="D762" s="11"/>
     </row>
     <row r="763">
-      <c r="D763" s="8"/>
+      <c r="D763" s="11"/>
     </row>
     <row r="764">
-      <c r="D764" s="8"/>
+      <c r="D764" s="11"/>
     </row>
     <row r="765">
-      <c r="D765" s="8"/>
+      <c r="D765" s="11"/>
     </row>
     <row r="766">
-      <c r="D766" s="8"/>
+      <c r="D766" s="11"/>
     </row>
     <row r="767">
-      <c r="D767" s="8"/>
+      <c r="D767" s="11"/>
     </row>
     <row r="768">
-      <c r="D768" s="8"/>
+      <c r="D768" s="11"/>
     </row>
     <row r="769">
-      <c r="D769" s="8"/>
+      <c r="D769" s="11"/>
     </row>
     <row r="770">
-      <c r="D770" s="8"/>
+      <c r="D770" s="11"/>
     </row>
     <row r="771">
-      <c r="D771" s="8"/>
+      <c r="D771" s="11"/>
     </row>
     <row r="772">
-      <c r="D772" s="8"/>
+      <c r="D772" s="11"/>
     </row>
     <row r="773">
-      <c r="D773" s="8"/>
+      <c r="D773" s="11"/>
     </row>
     <row r="774">
-      <c r="D774" s="8"/>
+      <c r="D774" s="11"/>
     </row>
     <row r="775">
-      <c r="D775" s="8"/>
+      <c r="D775" s="11"/>
     </row>
     <row r="776">
-      <c r="D776" s="8"/>
+      <c r="D776" s="11"/>
     </row>
     <row r="777">
-      <c r="D777" s="8"/>
+      <c r="D777" s="11"/>
     </row>
     <row r="778">
-      <c r="D778" s="8"/>
+      <c r="D778" s="11"/>
     </row>
     <row r="779">
-      <c r="D779" s="8"/>
+      <c r="D779" s="11"/>
     </row>
     <row r="780">
-      <c r="D780" s="8"/>
+      <c r="D780" s="11"/>
     </row>
     <row r="781">
-      <c r="D781" s="8"/>
+      <c r="D781" s="11"/>
     </row>
     <row r="782">
-      <c r="D782" s="8"/>
+      <c r="D782" s="11"/>
     </row>
     <row r="783">
-      <c r="D783" s="8"/>
+      <c r="D783" s="11"/>
     </row>
     <row r="784">
-      <c r="D784" s="8"/>
+      <c r="D784" s="11"/>
     </row>
     <row r="785">
-      <c r="D785" s="8"/>
+      <c r="D785" s="11"/>
     </row>
     <row r="786">
-      <c r="D786" s="8"/>
+      <c r="D786" s="11"/>
     </row>
     <row r="787">
-      <c r="D787" s="8"/>
+      <c r="D787" s="11"/>
     </row>
     <row r="788">
-      <c r="D788" s="8"/>
+      <c r="D788" s="11"/>
     </row>
     <row r="789">
-      <c r="D789" s="8"/>
+      <c r="D789" s="11"/>
     </row>
     <row r="790">
-      <c r="D790" s="8"/>
+      <c r="D790" s="11"/>
     </row>
     <row r="791">
-      <c r="D791" s="8"/>
+      <c r="D791" s="11"/>
     </row>
     <row r="792">
-      <c r="D792" s="8"/>
+      <c r="D792" s="11"/>
     </row>
     <row r="793">
-      <c r="D793" s="8"/>
+      <c r="D793" s="11"/>
     </row>
     <row r="794">
-      <c r="D794" s="8"/>
+      <c r="D794" s="11"/>
     </row>
     <row r="795">
-      <c r="D795" s="8"/>
+      <c r="D795" s="11"/>
     </row>
     <row r="796">
-      <c r="D796" s="8"/>
+      <c r="D796" s="11"/>
     </row>
     <row r="797">
-      <c r="D797" s="8"/>
+      <c r="D797" s="11"/>
     </row>
     <row r="798">
-      <c r="D798" s="8"/>
+      <c r="D798" s="11"/>
     </row>
     <row r="799">
-      <c r="D799" s="8"/>
+      <c r="D799" s="11"/>
     </row>
     <row r="800">
-      <c r="D800" s="8"/>
+      <c r="D800" s="11"/>
     </row>
     <row r="801">
-      <c r="D801" s="8"/>
+      <c r="D801" s="11"/>
     </row>
     <row r="802">
-      <c r="D802" s="8"/>
+      <c r="D802" s="11"/>
     </row>
     <row r="803">
-      <c r="D803" s="8"/>
+      <c r="D803" s="11"/>
     </row>
     <row r="804">
-      <c r="D804" s="8"/>
+      <c r="D804" s="11"/>
     </row>
     <row r="805">
-      <c r="D805" s="8"/>
+      <c r="D805" s="11"/>
     </row>
     <row r="806">
-      <c r="D806" s="8"/>
+      <c r="D806" s="11"/>
     </row>
     <row r="807">
-      <c r="D807" s="8"/>
+      <c r="D807" s="11"/>
     </row>
     <row r="808">
-      <c r="D808" s="8"/>
+      <c r="D808" s="11"/>
     </row>
     <row r="809">
-      <c r="D809" s="8"/>
+      <c r="D809" s="11"/>
     </row>
     <row r="810">
-      <c r="D810" s="8"/>
+      <c r="D810" s="11"/>
     </row>
     <row r="811">
-      <c r="D811" s="8"/>
+      <c r="D811" s="11"/>
     </row>
     <row r="812">
-      <c r="D812" s="8"/>
+      <c r="D812" s="11"/>
     </row>
     <row r="813">
-      <c r="D813" s="8"/>
+      <c r="D813" s="11"/>
     </row>
     <row r="814">
-      <c r="D814" s="8"/>
+      <c r="D814" s="11"/>
     </row>
     <row r="815">
-      <c r="D815" s="8"/>
+      <c r="D815" s="11"/>
     </row>
     <row r="816">
-      <c r="D816" s="8"/>
+      <c r="D816" s="11"/>
     </row>
     <row r="817">
-      <c r="D817" s="8"/>
+      <c r="D817" s="11"/>
     </row>
     <row r="818">
-      <c r="D818" s="8"/>
+      <c r="D818" s="11"/>
     </row>
     <row r="819">
-      <c r="D819" s="8"/>
+      <c r="D819" s="11"/>
     </row>
     <row r="820">
-      <c r="D820" s="8"/>
+      <c r="D820" s="11"/>
     </row>
     <row r="821">
-      <c r="D821" s="8"/>
+      <c r="D821" s="11"/>
     </row>
     <row r="822">
-      <c r="D822" s="8"/>
+      <c r="D822" s="11"/>
     </row>
     <row r="823">
-      <c r="D823" s="8"/>
+      <c r="D823" s="11"/>
     </row>
     <row r="824">
-      <c r="D824" s="8"/>
+      <c r="D824" s="11"/>
     </row>
     <row r="825">
-      <c r="D825" s="8"/>
+      <c r="D825" s="11"/>
     </row>
     <row r="826">
-      <c r="D826" s="8"/>
+      <c r="D826" s="11"/>
     </row>
     <row r="827">
-      <c r="D827" s="8"/>
+      <c r="D827" s="11"/>
     </row>
     <row r="828">
-      <c r="D828" s="8"/>
+      <c r="D828" s="11"/>
     </row>
     <row r="829">
-      <c r="D829" s="8"/>
+      <c r="D829" s="11"/>
     </row>
     <row r="830">
-      <c r="D830" s="8"/>
+      <c r="D830" s="11"/>
     </row>
     <row r="831">
-      <c r="D831" s="8"/>
+      <c r="D831" s="11"/>
     </row>
     <row r="832">
-      <c r="D832" s="8"/>
+      <c r="D832" s="11"/>
     </row>
     <row r="833">
-      <c r="D833" s="8"/>
+      <c r="D833" s="11"/>
     </row>
     <row r="834">
-      <c r="D834" s="8"/>
+      <c r="D834" s="11"/>
     </row>
     <row r="835">
-      <c r="D835" s="8"/>
+      <c r="D835" s="11"/>
     </row>
     <row r="836">
-      <c r="D836" s="8"/>
+      <c r="D836" s="11"/>
     </row>
     <row r="837">
-      <c r="D837" s="8"/>
+      <c r="D837" s="11"/>
     </row>
     <row r="838">
-      <c r="D838" s="8"/>
+      <c r="D838" s="11"/>
     </row>
     <row r="839">
-      <c r="D839" s="8"/>
+      <c r="D839" s="11"/>
     </row>
     <row r="840">
-      <c r="D840" s="8"/>
+      <c r="D840" s="11"/>
     </row>
     <row r="841">
-      <c r="D841" s="8"/>
+      <c r="D841" s="11"/>
     </row>
     <row r="842">
-      <c r="D842" s="8"/>
+      <c r="D842" s="11"/>
     </row>
     <row r="843">
-      <c r="D843" s="8"/>
+      <c r="D843" s="11"/>
     </row>
     <row r="844">
-      <c r="D844" s="8"/>
+      <c r="D844" s="11"/>
     </row>
     <row r="845">
-      <c r="D845" s="8"/>
+      <c r="D845" s="11"/>
     </row>
     <row r="846">
-      <c r="D846" s="8"/>
+      <c r="D846" s="11"/>
     </row>
     <row r="847">
-      <c r="D847" s="8"/>
+      <c r="D847" s="11"/>
     </row>
     <row r="848">
-      <c r="D848" s="8"/>
+      <c r="D848" s="11"/>
     </row>
     <row r="849">
-      <c r="D849" s="8"/>
+      <c r="D849" s="11"/>
     </row>
     <row r="850">
-      <c r="D850" s="8"/>
+      <c r="D850" s="11"/>
     </row>
     <row r="851">
-      <c r="D851" s="8"/>
+      <c r="D851" s="11"/>
     </row>
     <row r="852">
-      <c r="D852" s="8"/>
+      <c r="D852" s="11"/>
     </row>
     <row r="853">
-      <c r="D853" s="8"/>
+      <c r="D853" s="11"/>
     </row>
     <row r="854">
-      <c r="D854" s="8"/>
+      <c r="D854" s="11"/>
     </row>
     <row r="855">
-      <c r="D855" s="8"/>
+      <c r="D855" s="11"/>
     </row>
     <row r="856">
-      <c r="D856" s="8"/>
+      <c r="D856" s="11"/>
     </row>
     <row r="857">
-      <c r="D857" s="8"/>
+      <c r="D857" s="11"/>
     </row>
     <row r="858">
-      <c r="D858" s="8"/>
+      <c r="D858" s="11"/>
     </row>
     <row r="859">
-      <c r="D859" s="8"/>
+      <c r="D859" s="11"/>
     </row>
     <row r="860">
-      <c r="D860" s="8"/>
+      <c r="D860" s="11"/>
     </row>
     <row r="861">
-      <c r="D861" s="8"/>
+      <c r="D861" s="11"/>
     </row>
     <row r="862">
-      <c r="D862" s="8"/>
+      <c r="D862" s="11"/>
     </row>
     <row r="863">
-      <c r="D863" s="8"/>
+      <c r="D863" s="11"/>
     </row>
     <row r="864">
-      <c r="D864" s="8"/>
+      <c r="D864" s="11"/>
     </row>
     <row r="865">
-      <c r="D865" s="8"/>
+      <c r="D865" s="11"/>
     </row>
     <row r="866">
-      <c r="D866" s="8"/>
+      <c r="D866" s="11"/>
     </row>
     <row r="867">
-      <c r="D867" s="8"/>
+      <c r="D867" s="11"/>
     </row>
     <row r="868">
-      <c r="D868" s="8"/>
+      <c r="D868" s="11"/>
     </row>
     <row r="869">
-      <c r="D869" s="8"/>
+      <c r="D869" s="11"/>
     </row>
     <row r="870">
-      <c r="D870" s="8"/>
+      <c r="D870" s="11"/>
     </row>
     <row r="871">
-      <c r="D871" s="8"/>
+      <c r="D871" s="11"/>
     </row>
     <row r="872">
-      <c r="D872" s="8"/>
+      <c r="D872" s="11"/>
     </row>
     <row r="873">
-      <c r="D873" s="8"/>
+      <c r="D873" s="11"/>
     </row>
     <row r="874">
-      <c r="D874" s="8"/>
+      <c r="D874" s="11"/>
     </row>
     <row r="875">
-      <c r="D875" s="8"/>
+      <c r="D875" s="11"/>
     </row>
     <row r="876">
-      <c r="D876" s="8"/>
+      <c r="D876" s="11"/>
     </row>
     <row r="877">
-      <c r="D877" s="8"/>
+      <c r="D877" s="11"/>
     </row>
     <row r="878">
-      <c r="D878" s="8"/>
+      <c r="D878" s="11"/>
     </row>
     <row r="879">
-      <c r="D879" s="8"/>
+      <c r="D879" s="11"/>
     </row>
     <row r="880">
-      <c r="D880" s="8"/>
+      <c r="D880" s="11"/>
     </row>
     <row r="881">
-      <c r="D881" s="8"/>
+      <c r="D881" s="11"/>
     </row>
     <row r="882">
-      <c r="D882" s="8"/>
+      <c r="D882" s="11"/>
     </row>
     <row r="883">
-      <c r="D883" s="8"/>
+      <c r="D883" s="11"/>
     </row>
     <row r="884">
-      <c r="D884" s="8"/>
+      <c r="D884" s="11"/>
     </row>
     <row r="885">
-      <c r="D885" s="8"/>
+      <c r="D885" s="11"/>
     </row>
     <row r="886">
-      <c r="D886" s="8"/>
+      <c r="D886" s="11"/>
     </row>
     <row r="887">
-      <c r="D887" s="8"/>
+      <c r="D887" s="11"/>
     </row>
     <row r="888">
-      <c r="D888" s="8"/>
+      <c r="D888" s="11"/>
     </row>
     <row r="889">
-      <c r="D889" s="8"/>
+      <c r="D889" s="11"/>
     </row>
     <row r="890">
-      <c r="D890" s="8"/>
+      <c r="D890" s="11"/>
     </row>
     <row r="891">
-      <c r="D891" s="8"/>
+      <c r="D891" s="11"/>
     </row>
     <row r="892">
-      <c r="D892" s="8"/>
+      <c r="D892" s="11"/>
     </row>
     <row r="893">
-      <c r="D893" s="8"/>
+      <c r="D893" s="11"/>
     </row>
     <row r="894">
-      <c r="D894" s="8"/>
+      <c r="D894" s="11"/>
     </row>
     <row r="895">
-      <c r="D895" s="8"/>
+      <c r="D895" s="11"/>
     </row>
     <row r="896">
-      <c r="D896" s="8"/>
+      <c r="D896" s="11"/>
     </row>
     <row r="897">
-      <c r="D897" s="8"/>
+      <c r="D897" s="11"/>
     </row>
     <row r="898">
-      <c r="D898" s="8"/>
+      <c r="D898" s="11"/>
     </row>
     <row r="899">
-      <c r="D899" s="8"/>
+      <c r="D899" s="11"/>
     </row>
     <row r="900">
-      <c r="D900" s="8"/>
+      <c r="D900" s="11"/>
     </row>
     <row r="901">
-      <c r="D901" s="8"/>
+      <c r="D901" s="11"/>
     </row>
     <row r="902">
-      <c r="D902" s="8"/>
+      <c r="D902" s="11"/>
     </row>
     <row r="903">
-      <c r="D903" s="8"/>
+      <c r="D903" s="11"/>
     </row>
     <row r="904">
-      <c r="D904" s="8"/>
+      <c r="D904" s="11"/>
     </row>
     <row r="905">
-      <c r="D905" s="8"/>
+      <c r="D905" s="11"/>
     </row>
     <row r="906">
-      <c r="D906" s="8"/>
+      <c r="D906" s="11"/>
     </row>
     <row r="907">
-      <c r="D907" s="8"/>
+      <c r="D907" s="11"/>
     </row>
     <row r="908">
-      <c r="D908" s="8"/>
+      <c r="D908" s="11"/>
     </row>
     <row r="909">
-      <c r="D909" s="8"/>
+      <c r="D909" s="11"/>
     </row>
     <row r="910">
-      <c r="D910" s="8"/>
+      <c r="D910" s="11"/>
     </row>
     <row r="911">
-      <c r="D911" s="8"/>
+      <c r="D911" s="11"/>
     </row>
     <row r="912">
-      <c r="D912" s="8"/>
+      <c r="D912" s="11"/>
     </row>
     <row r="913">
-      <c r="D913" s="8"/>
+      <c r="D913" s="11"/>
     </row>
     <row r="914">
-      <c r="D914" s="8"/>
+      <c r="D914" s="11"/>
     </row>
     <row r="915">
-      <c r="D915" s="8"/>
+      <c r="D915" s="11"/>
     </row>
     <row r="916">
-      <c r="D916" s="8"/>
+      <c r="D916" s="11"/>
     </row>
     <row r="917">
-      <c r="D917" s="8"/>
+      <c r="D917" s="11"/>
     </row>
     <row r="918">
-      <c r="D918" s="8"/>
+      <c r="D918" s="11"/>
     </row>
     <row r="919">
-      <c r="D919" s="8"/>
+      <c r="D919" s="11"/>
     </row>
     <row r="920">
-      <c r="D920" s="8"/>
+      <c r="D920" s="11"/>
     </row>
     <row r="921">
-      <c r="D921" s="8"/>
+      <c r="D921" s="11"/>
     </row>
     <row r="922">
-      <c r="D922" s="8"/>
+      <c r="D922" s="11"/>
     </row>
     <row r="923">
-      <c r="D923" s="8"/>
+      <c r="D923" s="11"/>
     </row>
     <row r="924">
-      <c r="D924" s="8"/>
+      <c r="D924" s="11"/>
     </row>
     <row r="925">
-      <c r="D925" s="8"/>
+      <c r="D925" s="11"/>
     </row>
     <row r="926">
-      <c r="D926" s="8"/>
+      <c r="D926" s="11"/>
     </row>
     <row r="927">
-      <c r="D927" s="8"/>
+      <c r="D927" s="11"/>
     </row>
     <row r="928">
-      <c r="D928" s="8"/>
+      <c r="D928" s="11"/>
     </row>
     <row r="929">
-      <c r="D929" s="8"/>
+      <c r="D929" s="11"/>
     </row>
     <row r="930">
-      <c r="D930" s="8"/>
+      <c r="D930" s="11"/>
     </row>
     <row r="931">
-      <c r="D931" s="8"/>
+      <c r="D931" s="11"/>
     </row>
     <row r="932">
-      <c r="D932" s="8"/>
+      <c r="D932" s="11"/>
     </row>
     <row r="933">
-      <c r="D933" s="8"/>
+      <c r="D933" s="11"/>
     </row>
     <row r="934">
-      <c r="D934" s="8"/>
+      <c r="D934" s="11"/>
     </row>
     <row r="935">
-      <c r="D935" s="8"/>
+      <c r="D935" s="11"/>
     </row>
     <row r="936">
-      <c r="D936" s="8"/>
+      <c r="D936" s="11"/>
     </row>
     <row r="937">
-      <c r="D937" s="8"/>
+      <c r="D937" s="11"/>
     </row>
     <row r="938">
-      <c r="D938" s="8"/>
+      <c r="D938" s="11"/>
     </row>
     <row r="939">
-      <c r="D939" s="8"/>
+      <c r="D939" s="11"/>
     </row>
     <row r="940">
-      <c r="D940" s="8"/>
+      <c r="D940" s="11"/>
     </row>
     <row r="941">
-      <c r="D941" s="8"/>
+      <c r="D941" s="11"/>
     </row>
     <row r="942">
-      <c r="D942" s="8"/>
+      <c r="D942" s="11"/>
     </row>
     <row r="943">
-      <c r="D943" s="8"/>
+      <c r="D943" s="11"/>
     </row>
     <row r="944">
-      <c r="D944" s="8"/>
+      <c r="D944" s="11"/>
     </row>
     <row r="945">
-      <c r="D945" s="8"/>
+      <c r="D945" s="11"/>
     </row>
     <row r="946">
-      <c r="D946" s="8"/>
+      <c r="D946" s="11"/>
     </row>
     <row r="947">
-      <c r="D947" s="8"/>
+      <c r="D947" s="11"/>
     </row>
     <row r="948">
-      <c r="D948" s="8"/>
+      <c r="D948" s="11"/>
     </row>
     <row r="949">
-      <c r="D949" s="8"/>
+      <c r="D949" s="11"/>
     </row>
     <row r="950">
-      <c r="D950" s="8"/>
+      <c r="D950" s="11"/>
     </row>
     <row r="951">
-      <c r="D951" s="8"/>
+      <c r="D951" s="11"/>
     </row>
     <row r="952">
-      <c r="D952" s="8"/>
+      <c r="D952" s="11"/>
     </row>
     <row r="953">
-      <c r="D953" s="8"/>
+      <c r="D953" s="11"/>
     </row>
     <row r="954">
-      <c r="D954" s="8"/>
+      <c r="D954" s="11"/>
     </row>
     <row r="955">
-      <c r="D955" s="8"/>
+      <c r="D955" s="11"/>
     </row>
     <row r="956">
-      <c r="D956" s="8"/>
+      <c r="D956" s="11"/>
     </row>
     <row r="957">
-      <c r="D957" s="8"/>
+      <c r="D957" s="11"/>
     </row>
     <row r="958">
-      <c r="D958" s="8"/>
+      <c r="D958" s="11"/>
     </row>
     <row r="959">
-      <c r="D959" s="8"/>
+      <c r="D959" s="11"/>
     </row>
     <row r="960">
-      <c r="D960" s="8"/>
+      <c r="D960" s="11"/>
     </row>
     <row r="961">
-      <c r="D961" s="8"/>
+      <c r="D961" s="11"/>
     </row>
     <row r="962">
-      <c r="D962" s="8"/>
+      <c r="D962" s="11"/>
     </row>
     <row r="963">
-      <c r="D963" s="8"/>
+      <c r="D963" s="11"/>
     </row>
     <row r="964">
-      <c r="D964" s="8"/>
+      <c r="D964" s="11"/>
     </row>
     <row r="965">
-      <c r="D965" s="8"/>
+      <c r="D965" s="11"/>
     </row>
     <row r="966">
-      <c r="D966" s="8"/>
+      <c r="D966" s="11"/>
     </row>
     <row r="967">
-      <c r="D967" s="8"/>
+      <c r="D967" s="11"/>
     </row>
     <row r="968">
-      <c r="D968" s="8"/>
+      <c r="D968" s="11"/>
     </row>
     <row r="969">
-      <c r="D969" s="8"/>
+      <c r="D969" s="11"/>
     </row>
     <row r="970">
-      <c r="D970" s="8"/>
+      <c r="D970" s="11"/>
     </row>
     <row r="971">
-      <c r="D971" s="8"/>
+      <c r="D971" s="11"/>
     </row>
     <row r="972">
-      <c r="D972" s="8"/>
+      <c r="D972" s="11"/>
     </row>
     <row r="973">
-      <c r="D973" s="8"/>
+      <c r="D973" s="11"/>
     </row>
     <row r="974">
-      <c r="D974" s="8"/>
+      <c r="D974" s="11"/>
     </row>
     <row r="975">
-      <c r="D975" s="8"/>
+      <c r="D975" s="11"/>
     </row>
     <row r="976">
-      <c r="D976" s="8"/>
+      <c r="D976" s="11"/>
     </row>
     <row r="977">
-      <c r="D977" s="8"/>
+      <c r="D977" s="11"/>
     </row>
     <row r="978">
-      <c r="D978" s="8"/>
+      <c r="D978" s="11"/>
     </row>
     <row r="979">
-      <c r="D979" s="8"/>
+      <c r="D979" s="11"/>
     </row>
     <row r="980">
-      <c r="D980" s="8"/>
+      <c r="D980" s="11"/>
     </row>
     <row r="981">
-      <c r="D981" s="8"/>
+      <c r="D981" s="11"/>
     </row>
     <row r="982">
-      <c r="D982" s="8"/>
+      <c r="D982" s="11"/>
     </row>
     <row r="983">
-      <c r="D983" s="8"/>
+      <c r="D983" s="11"/>
     </row>
     <row r="984">
-      <c r="D984" s="8"/>
+      <c r="D984" s="11"/>
     </row>
     <row r="985">
-      <c r="D985" s="8"/>
+      <c r="D985" s="11"/>
     </row>
     <row r="986">
-      <c r="D986" s="8"/>
+      <c r="D986" s="11"/>
     </row>
     <row r="987">
-      <c r="D987" s="8"/>
+      <c r="D987" s="11"/>
     </row>
     <row r="988">
-      <c r="D988" s="8"/>
+      <c r="D988" s="11"/>
     </row>
     <row r="989">
-      <c r="D989" s="8"/>
+      <c r="D989" s="11"/>
     </row>
     <row r="990">
-      <c r="D990" s="8"/>
+      <c r="D990" s="11"/>
     </row>
     <row r="991">
-      <c r="D991" s="8"/>
+      <c r="D991" s="11"/>
     </row>
     <row r="992">
-      <c r="D992" s="8"/>
+      <c r="D992" s="11"/>
     </row>
     <row r="993">
-      <c r="D993" s="8"/>
+      <c r="D993" s="11"/>
     </row>
     <row r="994">
-      <c r="D994" s="8"/>
+      <c r="D994" s="11"/>
     </row>
     <row r="995">
-      <c r="D995" s="8"/>
+      <c r="D995" s="11"/>
     </row>
     <row r="996">
-      <c r="D996" s="8"/>
+      <c r="D996" s="11"/>
     </row>
     <row r="997">
-      <c r="D997" s="8"/>
+      <c r="D997" s="11"/>
     </row>
     <row r="998">
-      <c r="D998" s="8"/>
+      <c r="D998" s="11"/>
     </row>
     <row r="999">
-      <c r="D999" s="8"/>
+      <c r="D999" s="11"/>
     </row>
     <row r="1000">
-      <c r="D1000" s="8"/>
+      <c r="D1000" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$Q$74"/>
